--- a/applications/Spain/Barcelona_projections.xlsx
+++ b/applications/Spain/Barcelona_projections.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\applications\Spain\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A8892-20DD-407A-8A2C-EC410C897F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections" sheetId="1" r:id="rId1"/>
     <sheet name="Daily projections" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1070,16 +1086,16 @@
     <t>New infections</t>
   </si>
   <si>
-    <t>Small easing of restrictions in mid-August</t>
-  </si>
-  <si>
-    <t>Moderate easing of restrictions in mid-August</t>
-  </si>
-  <si>
-    <t>Small easing of restrictions in mid-September</t>
-  </si>
-  <si>
-    <t>Moderate easing of restrictions in mid-September</t>
+    <t>Small increase of restrictions in mid-August</t>
+  </si>
+  <si>
+    <t>Moderate increase of restrictions in mid-August</t>
+  </si>
+  <si>
+    <t>Small increase of restrictions in mid-September</t>
+  </si>
+  <si>
+    <t>Moderate increase of restrictions in mid-September</t>
   </si>
   <si>
     <t>No changes to current lockdown restrictions</t>
@@ -1094,8 +1110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,216 +1148,272 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X4" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X5" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="24">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" totalsRowFunction="custom">
+      <totalsRowFormula>A4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" totalsRowFunction="custom">
+      <totalsRowFormula>C4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" totalsRowFunction="custom">
+      <totalsRowFormula>B4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" totalsRowFunction="custom">
+      <totalsRowFormula>D4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" totalsRowFunction="custom">
+      <totalsRowFormula>F4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" totalsRowFunction="custom">
+      <totalsRowFormula>E4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" totalsRowFunction="custom">
+      <totalsRowFormula>G4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" totalsRowFunction="custom">
+      <totalsRowFormula>I4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" totalsRowFunction="custom">
+      <totalsRowFormula>H4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" totalsRowFunction="custom">
+      <totalsRowFormula>J4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" totalsRowFunction="custom">
+      <totalsRowFormula>L4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" totalsRowFunction="custom">
+      <totalsRowFormula>K4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" totalsRowFunction="custom">
+      <totalsRowFormula>M4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" totalsRowFunction="custom">
+      <totalsRowFormula>O4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15" totalsRowFunction="custom">
+      <totalsRowFormula>N4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16" totalsRowFunction="custom">
+      <totalsRowFormula>P4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17" totalsRowFunction="custom">
+      <totalsRowFormula>R4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18" totalsRowFunction="custom">
+      <totalsRowFormula>Q4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19" totalsRowFunction="custom">
+      <totalsRowFormula>S4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20" totalsRowFunction="custom">
+      <totalsRowFormula>U4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21" totalsRowFunction="custom">
+      <totalsRowFormula>T4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22" totalsRowFunction="custom">
+      <totalsRowFormula>V4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23" totalsRowFunction="custom">
+      <totalsRowFormula>X4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24" totalsRowFunction="custom">
+      <totalsRowFormula>W4</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:FO20" totalsRowShown="0">
-  <autoFilter ref="A1:FO20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:FO20" totalsRowShown="0">
+  <autoFilter ref="A1:FO20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="171">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
-    <tableColumn id="25" name="Column25"/>
-    <tableColumn id="26" name="Column26"/>
-    <tableColumn id="27" name="Column27"/>
-    <tableColumn id="28" name="Column28"/>
-    <tableColumn id="29" name="Column29"/>
-    <tableColumn id="30" name="Column30"/>
-    <tableColumn id="31" name="Column31"/>
-    <tableColumn id="32" name="Column32"/>
-    <tableColumn id="33" name="Column33"/>
-    <tableColumn id="34" name="Column34"/>
-    <tableColumn id="35" name="Column35"/>
-    <tableColumn id="36" name="Column36"/>
-    <tableColumn id="37" name="Column37"/>
-    <tableColumn id="38" name="Column38"/>
-    <tableColumn id="39" name="Column39"/>
-    <tableColumn id="40" name="Column40"/>
-    <tableColumn id="41" name="Column41"/>
-    <tableColumn id="42" name="Column42"/>
-    <tableColumn id="43" name="Column43"/>
-    <tableColumn id="44" name="Column44"/>
-    <tableColumn id="45" name="Column45"/>
-    <tableColumn id="46" name="Column46"/>
-    <tableColumn id="47" name="Column47"/>
-    <tableColumn id="48" name="Column48"/>
-    <tableColumn id="49" name="Column49"/>
-    <tableColumn id="50" name="Column50"/>
-    <tableColumn id="51" name="Column51"/>
-    <tableColumn id="52" name="Column52"/>
-    <tableColumn id="53" name="Column53"/>
-    <tableColumn id="54" name="Column54"/>
-    <tableColumn id="55" name="Column55"/>
-    <tableColumn id="56" name="Column56"/>
-    <tableColumn id="57" name="Column57"/>
-    <tableColumn id="58" name="Column58"/>
-    <tableColumn id="59" name="Column59"/>
-    <tableColumn id="60" name="Column60"/>
-    <tableColumn id="61" name="Column61"/>
-    <tableColumn id="62" name="Column62"/>
-    <tableColumn id="63" name="Column63"/>
-    <tableColumn id="64" name="Column64"/>
-    <tableColumn id="65" name="Column65"/>
-    <tableColumn id="66" name="Column66"/>
-    <tableColumn id="67" name="Column67"/>
-    <tableColumn id="68" name="Column68"/>
-    <tableColumn id="69" name="Column69"/>
-    <tableColumn id="70" name="Column70"/>
-    <tableColumn id="71" name="Column71"/>
-    <tableColumn id="72" name="Column72"/>
-    <tableColumn id="73" name="Column73"/>
-    <tableColumn id="74" name="Column74"/>
-    <tableColumn id="75" name="Column75"/>
-    <tableColumn id="76" name="Column76"/>
-    <tableColumn id="77" name="Column77"/>
-    <tableColumn id="78" name="Column78"/>
-    <tableColumn id="79" name="Column79"/>
-    <tableColumn id="80" name="Column80"/>
-    <tableColumn id="81" name="Column81"/>
-    <tableColumn id="82" name="Column82"/>
-    <tableColumn id="83" name="Column83"/>
-    <tableColumn id="84" name="Column84"/>
-    <tableColumn id="85" name="Column85"/>
-    <tableColumn id="86" name="Column86"/>
-    <tableColumn id="87" name="Column87"/>
-    <tableColumn id="88" name="Column88"/>
-    <tableColumn id="89" name="Column89"/>
-    <tableColumn id="90" name="Column90"/>
-    <tableColumn id="91" name="Column91"/>
-    <tableColumn id="92" name="Column92"/>
-    <tableColumn id="93" name="Column93"/>
-    <tableColumn id="94" name="Column94"/>
-    <tableColumn id="95" name="Column95"/>
-    <tableColumn id="96" name="Column96"/>
-    <tableColumn id="97" name="Column97"/>
-    <tableColumn id="98" name="Column98"/>
-    <tableColumn id="99" name="Column99"/>
-    <tableColumn id="100" name="Column100"/>
-    <tableColumn id="101" name="Column101"/>
-    <tableColumn id="102" name="Column102"/>
-    <tableColumn id="103" name="Column103"/>
-    <tableColumn id="104" name="Column104"/>
-    <tableColumn id="105" name="Column105"/>
-    <tableColumn id="106" name="Column106"/>
-    <tableColumn id="107" name="Column107"/>
-    <tableColumn id="108" name="Column108"/>
-    <tableColumn id="109" name="Column109"/>
-    <tableColumn id="110" name="Column110"/>
-    <tableColumn id="111" name="Column111"/>
-    <tableColumn id="112" name="Column112"/>
-    <tableColumn id="113" name="Column113"/>
-    <tableColumn id="114" name="Column114"/>
-    <tableColumn id="115" name="Column115"/>
-    <tableColumn id="116" name="Column116"/>
-    <tableColumn id="117" name="Column117"/>
-    <tableColumn id="118" name="Column118"/>
-    <tableColumn id="119" name="Column119"/>
-    <tableColumn id="120" name="Column120"/>
-    <tableColumn id="121" name="Column121"/>
-    <tableColumn id="122" name="Column122"/>
-    <tableColumn id="123" name="Column123"/>
-    <tableColumn id="124" name="Column124"/>
-    <tableColumn id="125" name="Column125"/>
-    <tableColumn id="126" name="Column126"/>
-    <tableColumn id="127" name="Column127"/>
-    <tableColumn id="128" name="Column128"/>
-    <tableColumn id="129" name="Column129"/>
-    <tableColumn id="130" name="Column130"/>
-    <tableColumn id="131" name="Column131"/>
-    <tableColumn id="132" name="Column132"/>
-    <tableColumn id="133" name="Column133"/>
-    <tableColumn id="134" name="Column134"/>
-    <tableColumn id="135" name="Column135"/>
-    <tableColumn id="136" name="Column136"/>
-    <tableColumn id="137" name="Column137"/>
-    <tableColumn id="138" name="Column138"/>
-    <tableColumn id="139" name="Column139"/>
-    <tableColumn id="140" name="Column140"/>
-    <tableColumn id="141" name="Column141"/>
-    <tableColumn id="142" name="Column142"/>
-    <tableColumn id="143" name="Column143"/>
-    <tableColumn id="144" name="Column144"/>
-    <tableColumn id="145" name="Column145"/>
-    <tableColumn id="146" name="Column146"/>
-    <tableColumn id="147" name="Column147"/>
-    <tableColumn id="148" name="Column148"/>
-    <tableColumn id="149" name="Column149"/>
-    <tableColumn id="150" name="Column150"/>
-    <tableColumn id="151" name="Column151"/>
-    <tableColumn id="152" name="Column152"/>
-    <tableColumn id="153" name="Column153"/>
-    <tableColumn id="154" name="Column154"/>
-    <tableColumn id="155" name="Column155"/>
-    <tableColumn id="156" name="Column156"/>
-    <tableColumn id="157" name="Column157"/>
-    <tableColumn id="158" name="Column158"/>
-    <tableColumn id="159" name="Column159"/>
-    <tableColumn id="160" name="Column160"/>
-    <tableColumn id="161" name="Column161"/>
-    <tableColumn id="162" name="Column162"/>
-    <tableColumn id="163" name="Column163"/>
-    <tableColumn id="164" name="Column164"/>
-    <tableColumn id="165" name="Column165"/>
-    <tableColumn id="166" name="Column166"/>
-    <tableColumn id="167" name="Column167"/>
-    <tableColumn id="168" name="Column168"/>
-    <tableColumn id="169" name="Column169"/>
-    <tableColumn id="170" name="Column170"/>
-    <tableColumn id="171" name="Column171"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0100-000036000000}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0100-000037000000}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0100-000038000000}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0100-000039000000}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0100-00003A000000}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0100-00003B000000}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0100-00003C000000}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0100-00003D000000}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0100-00003E000000}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0100-00003F000000}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0100-000040000000}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0100-000041000000}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0100-000042000000}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0100-000043000000}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0100-000044000000}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0100-000045000000}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0100-000046000000}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0100-000047000000}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0100-000048000000}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0100-000049000000}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0100-00004A000000}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0100-00004B000000}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0100-00004C000000}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0100-00004D000000}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0100-00004E000000}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0100-00004F000000}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0100-000050000000}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0100-000051000000}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0100-000052000000}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0100-000053000000}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0100-000054000000}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0100-000055000000}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0100-000056000000}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0100-000057000000}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0100-000058000000}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0100-000059000000}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0100-00005A000000}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0100-00005B000000}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0100-00005C000000}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0100-00005D000000}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0100-00005E000000}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0100-00005F000000}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0100-000060000000}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0100-000061000000}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0100-000062000000}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0100-000063000000}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0100-000064000000}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0100-000065000000}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0100-000066000000}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0100-000067000000}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0100-000068000000}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0100-000069000000}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0100-00006A000000}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0100-00006B000000}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0100-00006C000000}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0100-00006D000000}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{00000000-0010-0000-0100-00006E000000}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0100-00006F000000}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{00000000-0010-0000-0100-000070000000}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{00000000-0010-0000-0100-000071000000}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0100-000072000000}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{00000000-0010-0000-0100-000073000000}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{00000000-0010-0000-0100-000074000000}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0100-000075000000}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0100-000076000000}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0100-000077000000}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0100-000078000000}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0100-000079000000}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0100-00007A000000}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0100-00007B000000}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0100-00007C000000}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{00000000-0010-0000-0100-00007D000000}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0100-00007E000000}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{00000000-0010-0000-0100-00007F000000}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{00000000-0010-0000-0100-000080000000}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0100-000081000000}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{00000000-0010-0000-0100-000082000000}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{00000000-0010-0000-0100-000083000000}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0100-000084000000}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{00000000-0010-0000-0100-000085000000}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{00000000-0010-0000-0100-000086000000}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0100-000087000000}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0100-000088000000}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0100-000089000000}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0100-00008A000000}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0100-00008B000000}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0100-00008C000000}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0100-00008D000000}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{00000000-0010-0000-0100-00008E000000}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{00000000-0010-0000-0100-00008F000000}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0100-000090000000}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{00000000-0010-0000-0100-000091000000}" name="Column145"/>
+    <tableColumn id="146" xr3:uid="{00000000-0010-0000-0100-000092000000}" name="Column146"/>
+    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0100-000093000000}" name="Column147"/>
+    <tableColumn id="148" xr3:uid="{00000000-0010-0000-0100-000094000000}" name="Column148"/>
+    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0100-000095000000}" name="Column149"/>
+    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0100-000096000000}" name="Column150"/>
+    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0100-000097000000}" name="Column151"/>
+    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0100-000098000000}" name="Column152"/>
+    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0100-000099000000}" name="Column153"/>
+    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0100-00009A000000}" name="Column154"/>
+    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0100-00009B000000}" name="Column155"/>
+    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0100-00009C000000}" name="Column156"/>
+    <tableColumn id="157" xr3:uid="{00000000-0010-0000-0100-00009D000000}" name="Column157"/>
+    <tableColumn id="158" xr3:uid="{00000000-0010-0000-0100-00009E000000}" name="Column158"/>
+    <tableColumn id="159" xr3:uid="{00000000-0010-0000-0100-00009F000000}" name="Column159"/>
+    <tableColumn id="160" xr3:uid="{00000000-0010-0000-0100-0000A0000000}" name="Column160"/>
+    <tableColumn id="161" xr3:uid="{00000000-0010-0000-0100-0000A1000000}" name="Column161"/>
+    <tableColumn id="162" xr3:uid="{00000000-0010-0000-0100-0000A2000000}" name="Column162"/>
+    <tableColumn id="163" xr3:uid="{00000000-0010-0000-0100-0000A3000000}" name="Column163"/>
+    <tableColumn id="164" xr3:uid="{00000000-0010-0000-0100-0000A4000000}" name="Column164"/>
+    <tableColumn id="165" xr3:uid="{00000000-0010-0000-0100-0000A5000000}" name="Column165"/>
+    <tableColumn id="166" xr3:uid="{00000000-0010-0000-0100-0000A6000000}" name="Column166"/>
+    <tableColumn id="167" xr3:uid="{00000000-0010-0000-0100-0000A7000000}" name="Column167"/>
+    <tableColumn id="168" xr3:uid="{00000000-0010-0000-0100-0000A8000000}" name="Column168"/>
+    <tableColumn id="169" xr3:uid="{00000000-0010-0000-0100-0000A9000000}" name="Column169"/>
+    <tableColumn id="170" xr3:uid="{00000000-0010-0000-0100-0000AA000000}" name="Column170"/>
+    <tableColumn id="171" xr3:uid="{00000000-0010-0000-0100-0000AB000000}" name="Column171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1390,7 +1462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1422,9 +1494,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1456,6 +1546,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1631,14 +1739,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="A5:X5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1746,97 +1856,198 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2314263</v>
+        <v>1641594</v>
       </c>
       <c r="B4">
         <v>1981526</v>
       </c>
       <c r="C4">
-        <v>1831754</v>
+        <v>1081311</v>
       </c>
       <c r="D4">
-        <v>26.6445652173913</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E4">
-        <v>22.81369565217392</v>
+        <v>22.813695652173919</v>
       </c>
       <c r="F4">
-        <v>21.08934782608695</v>
+        <v>12.44934782608696</v>
       </c>
       <c r="G4">
-        <v>0.2080434782608695</v>
+        <v>0.18652173913043479</v>
       </c>
       <c r="H4">
-        <v>0.1897826086956522</v>
+        <v>0.18978260869565219</v>
       </c>
       <c r="I4">
-        <v>0.188804347826087</v>
+        <v>0.1307608695652174</v>
       </c>
       <c r="J4">
-        <v>0.7792130893027159</v>
+        <v>0.66159808930271591</v>
       </c>
       <c r="K4">
-        <v>0.7207630893027158</v>
+        <v>0.72076308930271582</v>
       </c>
       <c r="L4">
-        <v>0.8538229419369884</v>
+        <v>0.43110515854573561</v>
       </c>
       <c r="M4">
-        <v>159684</v>
+        <v>206332</v>
       </c>
       <c r="N4">
         <v>197637</v>
       </c>
       <c r="O4">
-        <v>43390</v>
+        <v>507716</v>
       </c>
       <c r="P4">
-        <v>1.409499999999999</v>
+        <v>1.82125</v>
       </c>
       <c r="Q4">
-        <v>1.744499999999999</v>
+        <v>1.7444999999999991</v>
       </c>
       <c r="R4">
-        <v>0.3829999999999999</v>
+        <v>4.4814999999999996</v>
       </c>
       <c r="S4">
-        <v>0.02999999999999999</v>
+        <v>3.0749999999999979E-2</v>
       </c>
       <c r="T4">
-        <v>0.03324999999999998</v>
+        <v>3.3249999999999981E-2</v>
       </c>
       <c r="U4">
-        <v>0.006250000000000001</v>
+        <v>6.2499999999999958E-2</v>
       </c>
       <c r="V4">
-        <v>0.8091811712702844</v>
+        <v>0.70018808930271592</v>
       </c>
       <c r="W4">
-        <v>0.7581330893027156</v>
+        <v>0.75813308930271561</v>
       </c>
       <c r="X4">
-        <v>0.8618429419369891</v>
+        <v>0.52949092409162135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4</f>
+        <v>1641594</v>
+      </c>
+      <c r="B5">
+        <f>C4</f>
+        <v>1081311</v>
+      </c>
+      <c r="C5">
+        <f>B4</f>
+        <v>1981526</v>
+      </c>
+      <c r="D5">
+        <f>D4</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E5">
+        <f>F4</f>
+        <v>12.44934782608696</v>
+      </c>
+      <c r="F5">
+        <f>E4</f>
+        <v>22.813695652173919</v>
+      </c>
+      <c r="G5">
+        <f>G4</f>
+        <v>0.18652173913043479</v>
+      </c>
+      <c r="H5">
+        <f>I4</f>
+        <v>0.1307608695652174</v>
+      </c>
+      <c r="I5">
+        <f>H4</f>
+        <v>0.18978260869565219</v>
+      </c>
+      <c r="J5">
+        <f>J4</f>
+        <v>0.66159808930271591</v>
+      </c>
+      <c r="K5">
+        <f>L4</f>
+        <v>0.43110515854573561</v>
+      </c>
+      <c r="L5">
+        <f>K4</f>
+        <v>0.72076308930271582</v>
+      </c>
+      <c r="M5">
+        <f>M4</f>
+        <v>206332</v>
+      </c>
+      <c r="N5">
+        <f>O4</f>
+        <v>507716</v>
+      </c>
+      <c r="O5">
+        <f>N4</f>
+        <v>197637</v>
+      </c>
+      <c r="P5">
+        <f>P4</f>
+        <v>1.82125</v>
+      </c>
+      <c r="Q5">
+        <f>R4</f>
+        <v>4.4814999999999996</v>
+      </c>
+      <c r="R5">
+        <f>Q4</f>
+        <v>1.7444999999999991</v>
+      </c>
+      <c r="S5">
+        <f>S4</f>
+        <v>3.0749999999999979E-2</v>
+      </c>
+      <c r="T5">
+        <f>U4</f>
+        <v>6.2499999999999958E-2</v>
+      </c>
+      <c r="U5">
+        <f>T4</f>
+        <v>3.3249999999999981E-2</v>
+      </c>
+      <c r="V5">
+        <f>V4</f>
+        <v>0.70018808930271592</v>
+      </c>
+      <c r="W5">
+        <f>X4</f>
+        <v>0.52949092409162135</v>
+      </c>
+      <c r="X5">
+        <f>W4</f>
+        <v>0.75813308930271561</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FO20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:171">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:171">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -2863,12 +3074,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:171">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:171">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>351</v>
       </c>
@@ -2966,421 +3177,421 @@
         <v>17352</v>
       </c>
       <c r="AG4">
-        <v>23206</v>
+        <v>17755</v>
       </c>
       <c r="AH4">
-        <v>23185</v>
+        <v>18045</v>
       </c>
       <c r="AI4">
-        <v>22729</v>
+        <v>18629</v>
       </c>
       <c r="AJ4">
-        <v>23680</v>
+        <v>18537</v>
       </c>
       <c r="AK4">
-        <v>30301</v>
+        <v>18922</v>
       </c>
       <c r="AL4">
-        <v>29984</v>
+        <v>22893</v>
       </c>
       <c r="AM4">
-        <v>37190</v>
+        <v>22507</v>
       </c>
       <c r="AN4">
-        <v>35929</v>
+        <v>24530</v>
       </c>
       <c r="AO4">
-        <v>36122</v>
+        <v>27826</v>
       </c>
       <c r="AP4">
-        <v>43908</v>
+        <v>26192</v>
       </c>
       <c r="AQ4">
-        <v>53484</v>
+        <v>26454</v>
       </c>
       <c r="AR4">
-        <v>54681</v>
+        <v>26044</v>
       </c>
       <c r="AS4">
-        <v>52086</v>
+        <v>31653</v>
       </c>
       <c r="AT4">
-        <v>58941</v>
+        <v>36642</v>
       </c>
       <c r="AU4">
-        <v>61913</v>
+        <v>37908</v>
       </c>
       <c r="AV4">
-        <v>60950</v>
+        <v>35874</v>
       </c>
       <c r="AW4">
-        <v>62282</v>
+        <v>35594</v>
       </c>
       <c r="AX4">
-        <v>68683</v>
+        <v>36338</v>
       </c>
       <c r="AY4">
-        <v>69107</v>
+        <v>38094</v>
       </c>
       <c r="AZ4">
-        <v>74234</v>
+        <v>39028</v>
       </c>
       <c r="BA4">
-        <v>75140</v>
+        <v>39538</v>
       </c>
       <c r="BB4">
-        <v>78992</v>
+        <v>40133</v>
       </c>
       <c r="BC4">
-        <v>79134</v>
+        <v>41096</v>
       </c>
       <c r="BD4">
-        <v>83779</v>
+        <v>42286</v>
       </c>
       <c r="BE4">
-        <v>83949</v>
+        <v>42824</v>
       </c>
       <c r="BF4">
-        <v>85223</v>
+        <v>43617</v>
       </c>
       <c r="BG4">
-        <v>85903</v>
+        <v>44268</v>
       </c>
       <c r="BH4">
-        <v>88565</v>
+        <v>46364</v>
       </c>
       <c r="BI4">
-        <v>91369</v>
+        <v>47129</v>
       </c>
       <c r="BJ4">
-        <v>90293</v>
+        <v>48233</v>
       </c>
       <c r="BK4">
-        <v>88367</v>
+        <v>48347</v>
       </c>
       <c r="BL4">
-        <v>90774</v>
+        <v>48120</v>
       </c>
       <c r="BM4">
-        <v>90321</v>
+        <v>47752</v>
       </c>
       <c r="BN4">
-        <v>90973</v>
+        <v>49480</v>
       </c>
       <c r="BO4">
-        <v>87262</v>
+        <v>47554</v>
       </c>
       <c r="BP4">
-        <v>87885</v>
+        <v>47299</v>
       </c>
       <c r="BQ4">
-        <v>86016</v>
+        <v>48205</v>
       </c>
       <c r="BR4">
-        <v>84742</v>
+        <v>48941</v>
       </c>
       <c r="BS4">
-        <v>82844</v>
+        <v>49395</v>
       </c>
       <c r="BT4">
-        <v>80153</v>
+        <v>48432</v>
       </c>
       <c r="BU4">
-        <v>78227</v>
+        <v>48290</v>
       </c>
       <c r="BV4">
-        <v>74970</v>
+        <v>46251</v>
       </c>
       <c r="BW4">
-        <v>71203</v>
+        <v>46562</v>
       </c>
       <c r="BX4">
-        <v>68116</v>
+        <v>45118</v>
       </c>
       <c r="BY4">
-        <v>66530</v>
+        <v>46506</v>
       </c>
       <c r="BZ4">
-        <v>61120</v>
+        <v>44721</v>
       </c>
       <c r="CA4">
-        <v>58996</v>
+        <v>43503</v>
       </c>
       <c r="CB4">
-        <v>54804</v>
+        <v>42767</v>
       </c>
       <c r="CC4">
-        <v>50471</v>
+        <v>43503</v>
       </c>
       <c r="CD4">
-        <v>47355</v>
+        <v>42172</v>
       </c>
       <c r="CE4">
-        <v>45458</v>
+        <v>42399</v>
       </c>
       <c r="CF4">
-        <v>42540</v>
+        <v>39963</v>
       </c>
       <c r="CG4">
-        <v>41124</v>
+        <v>38943</v>
       </c>
       <c r="CH4">
-        <v>38887</v>
+        <v>37924</v>
       </c>
       <c r="CI4">
-        <v>34412</v>
+        <v>35488</v>
       </c>
       <c r="CJ4">
-        <v>33137</v>
+        <v>35488</v>
       </c>
       <c r="CK4">
-        <v>30730</v>
+        <v>36593</v>
       </c>
       <c r="CL4">
-        <v>27558</v>
+        <v>34638</v>
       </c>
       <c r="CM4">
-        <v>26425</v>
+        <v>33760</v>
       </c>
       <c r="CN4">
-        <v>23394</v>
+        <v>31806</v>
       </c>
       <c r="CO4">
-        <v>22233</v>
+        <v>32118</v>
       </c>
       <c r="CP4">
+        <v>31325</v>
+      </c>
+      <c r="CQ4">
+        <v>30758</v>
+      </c>
+      <c r="CR4">
+        <v>29229</v>
+      </c>
+      <c r="CS4">
+        <v>28407</v>
+      </c>
+      <c r="CT4">
+        <v>26765</v>
+      </c>
+      <c r="CU4">
+        <v>25377</v>
+      </c>
+      <c r="CV4">
+        <v>25405</v>
+      </c>
+      <c r="CW4">
+        <v>23677</v>
+      </c>
+      <c r="CX4">
+        <v>23083</v>
+      </c>
+      <c r="CY4">
+        <v>20647</v>
+      </c>
+      <c r="CZ4">
         <v>21440</v>
       </c>
-      <c r="CQ4">
-        <v>20335</v>
-      </c>
-      <c r="CR4">
-        <v>18211</v>
-      </c>
-      <c r="CS4">
-        <v>15605</v>
-      </c>
-      <c r="CT4">
-        <v>17871</v>
-      </c>
-      <c r="CU4">
-        <v>14529</v>
-      </c>
-      <c r="CV4">
-        <v>14189</v>
-      </c>
-      <c r="CW4">
-        <v>12348</v>
-      </c>
-      <c r="CX4">
-        <v>11640</v>
-      </c>
-      <c r="CY4">
-        <v>10281</v>
-      </c>
-      <c r="CZ4">
-        <v>10337</v>
-      </c>
       <c r="DA4">
-        <v>8865</v>
+        <v>20817</v>
       </c>
       <c r="DB4">
-        <v>7817</v>
+        <v>21100</v>
       </c>
       <c r="DC4">
-        <v>7760</v>
+        <v>18919</v>
       </c>
       <c r="DD4">
-        <v>7052</v>
+        <v>17446</v>
       </c>
       <c r="DE4">
+        <v>17191</v>
+      </c>
+      <c r="DF4">
+        <v>16823</v>
+      </c>
+      <c r="DG4">
+        <v>14926</v>
+      </c>
+      <c r="DH4">
+        <v>15096</v>
+      </c>
+      <c r="DI4">
+        <v>15209</v>
+      </c>
+      <c r="DJ4">
+        <v>12971</v>
+      </c>
+      <c r="DK4">
+        <v>12405</v>
+      </c>
+      <c r="DL4">
+        <v>12801</v>
+      </c>
+      <c r="DM4">
+        <v>11414</v>
+      </c>
+      <c r="DN4">
+        <v>11555</v>
+      </c>
+      <c r="DO4">
+        <v>9714</v>
+      </c>
+      <c r="DP4">
+        <v>10167</v>
+      </c>
+      <c r="DQ4">
+        <v>9573</v>
+      </c>
+      <c r="DR4">
+        <v>9261</v>
+      </c>
+      <c r="DS4">
+        <v>8355</v>
+      </c>
+      <c r="DT4">
+        <v>8751</v>
+      </c>
+      <c r="DU4">
+        <v>7958</v>
+      </c>
+      <c r="DV4">
+        <v>7335</v>
+      </c>
+      <c r="DW4">
+        <v>8383</v>
+      </c>
+      <c r="DX4">
+        <v>7080</v>
+      </c>
+      <c r="DY4">
+        <v>6542</v>
+      </c>
+      <c r="DZ4">
+        <v>6995</v>
+      </c>
+      <c r="EA4">
         <v>6457</v>
       </c>
-      <c r="DF4">
-        <v>6174</v>
-      </c>
-      <c r="DG4">
-        <v>6344</v>
-      </c>
-      <c r="DH4">
-        <v>5692</v>
-      </c>
-      <c r="DI4">
+      <c r="EB4">
+        <v>5976</v>
+      </c>
+      <c r="EC4">
+        <v>6316</v>
+      </c>
+      <c r="ED4">
+        <v>5069</v>
+      </c>
+      <c r="EE4">
+        <v>5154</v>
+      </c>
+      <c r="EF4">
+        <v>5324</v>
+      </c>
+      <c r="EG4">
         <v>5041</v>
       </c>
-      <c r="DJ4">
-        <v>4248</v>
-      </c>
-      <c r="DK4">
-        <v>5154</v>
-      </c>
-      <c r="DL4">
+      <c r="EH4">
+        <v>4559</v>
+      </c>
+      <c r="EI4">
+        <v>5041</v>
+      </c>
+      <c r="EJ4">
+        <v>4559</v>
+      </c>
+      <c r="EK4">
+        <v>4843</v>
+      </c>
+      <c r="EL4">
+        <v>3625</v>
+      </c>
+      <c r="EM4">
+        <v>3823</v>
+      </c>
+      <c r="EN4">
+        <v>3908</v>
+      </c>
+      <c r="EO4">
         <v>3681</v>
       </c>
-      <c r="DM4">
-        <v>4333</v>
-      </c>
-      <c r="DN4">
+      <c r="EP4">
+        <v>3710</v>
+      </c>
+      <c r="EQ4">
+        <v>3313</v>
+      </c>
+      <c r="ER4">
+        <v>3568</v>
+      </c>
+      <c r="ES4">
+        <v>3172</v>
+      </c>
+      <c r="ET4">
+        <v>2718</v>
+      </c>
+      <c r="EU4">
+        <v>3030</v>
+      </c>
+      <c r="EV4">
+        <v>3172</v>
+      </c>
+      <c r="EW4">
+        <v>2860</v>
+      </c>
+      <c r="EX4">
         <v>2917</v>
       </c>
-      <c r="DO4">
-        <v>3653</v>
-      </c>
-      <c r="DP4">
-        <v>2945</v>
-      </c>
-      <c r="DQ4">
-        <v>3002</v>
-      </c>
-      <c r="DR4">
-        <v>2803</v>
-      </c>
-      <c r="DS4">
-        <v>2888</v>
-      </c>
-      <c r="DT4">
-        <v>2888</v>
-      </c>
-      <c r="DU4">
-        <v>1784</v>
-      </c>
-      <c r="DV4">
+      <c r="EY4">
+        <v>2860</v>
+      </c>
+      <c r="EZ4">
+        <v>2350</v>
+      </c>
+      <c r="FA4">
+        <v>2775</v>
+      </c>
+      <c r="FB4">
+        <v>2747</v>
+      </c>
+      <c r="FC4">
+        <v>2747</v>
+      </c>
+      <c r="FD4">
+        <v>2180</v>
+      </c>
+      <c r="FE4">
+        <v>2010</v>
+      </c>
+      <c r="FF4">
+        <v>2067</v>
+      </c>
+      <c r="FG4">
+        <v>1982</v>
+      </c>
+      <c r="FH4">
+        <v>2010</v>
+      </c>
+      <c r="FI4">
+        <v>1840</v>
+      </c>
+      <c r="FJ4">
         <v>2152</v>
       </c>
-      <c r="DW4">
+      <c r="FK4">
+        <v>1869</v>
+      </c>
+      <c r="FL4">
+        <v>1840</v>
+      </c>
+      <c r="FM4">
+        <v>1472</v>
+      </c>
+      <c r="FN4">
         <v>1925</v>
       </c>
-      <c r="DX4">
-        <v>1642</v>
-      </c>
-      <c r="DY4">
-        <v>1727</v>
-      </c>
-      <c r="DZ4">
-        <v>1671</v>
-      </c>
-      <c r="EA4">
-        <v>1387</v>
-      </c>
-      <c r="EB4">
-        <v>1586</v>
-      </c>
-      <c r="EC4">
-        <v>1132</v>
-      </c>
-      <c r="ED4">
-        <v>1246</v>
-      </c>
-      <c r="EE4">
-        <v>1302</v>
-      </c>
-      <c r="EF4">
-        <v>1132</v>
-      </c>
-      <c r="EG4">
-        <v>1076</v>
-      </c>
-      <c r="EH4">
-        <v>1019</v>
-      </c>
-      <c r="EI4">
-        <v>878</v>
-      </c>
-      <c r="EJ4">
-        <v>793</v>
-      </c>
-      <c r="EK4">
-        <v>962</v>
-      </c>
-      <c r="EL4">
-        <v>679</v>
-      </c>
-      <c r="EM4">
-        <v>991</v>
-      </c>
-      <c r="EN4">
-        <v>793</v>
-      </c>
-      <c r="EO4">
-        <v>878</v>
-      </c>
-      <c r="EP4">
-        <v>708</v>
-      </c>
-      <c r="EQ4">
-        <v>651</v>
-      </c>
-      <c r="ER4">
-        <v>708</v>
-      </c>
-      <c r="ES4">
-        <v>594</v>
-      </c>
-      <c r="ET4">
-        <v>594</v>
-      </c>
-      <c r="EU4">
-        <v>566</v>
-      </c>
-      <c r="EV4">
-        <v>509</v>
-      </c>
-      <c r="EW4">
-        <v>679</v>
-      </c>
-      <c r="EX4">
-        <v>623</v>
-      </c>
-      <c r="EY4">
-        <v>424</v>
-      </c>
-      <c r="EZ4">
-        <v>481</v>
-      </c>
-      <c r="FA4">
-        <v>566</v>
-      </c>
-      <c r="FB4">
-        <v>481</v>
-      </c>
-      <c r="FC4">
-        <v>623</v>
-      </c>
-      <c r="FD4">
-        <v>509</v>
-      </c>
-      <c r="FE4">
-        <v>651</v>
-      </c>
-      <c r="FF4">
-        <v>453</v>
-      </c>
-      <c r="FG4">
-        <v>651</v>
-      </c>
-      <c r="FH4">
-        <v>509</v>
-      </c>
-      <c r="FI4">
-        <v>424</v>
-      </c>
-      <c r="FJ4">
-        <v>481</v>
-      </c>
-      <c r="FK4">
-        <v>509</v>
-      </c>
-      <c r="FL4">
-        <v>481</v>
-      </c>
-      <c r="FM4">
-        <v>509</v>
-      </c>
-      <c r="FN4">
-        <v>566</v>
-      </c>
     </row>
-    <row r="5" spans="1:171">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>352</v>
       </c>
@@ -3478,421 +3689,421 @@
         <v>17352</v>
       </c>
       <c r="AG5">
-        <v>27139</v>
+        <v>14874</v>
       </c>
       <c r="AH5">
-        <v>25660</v>
+        <v>15051</v>
       </c>
       <c r="AI5">
-        <v>24505</v>
+        <v>14716</v>
       </c>
       <c r="AJ5">
-        <v>27556</v>
+        <v>15683</v>
       </c>
       <c r="AK5">
-        <v>31823</v>
+        <v>15657</v>
       </c>
       <c r="AL5">
-        <v>38614</v>
+        <v>16000</v>
       </c>
       <c r="AM5">
-        <v>40718</v>
+        <v>18409</v>
       </c>
       <c r="AN5">
-        <v>40086</v>
+        <v>17448</v>
       </c>
       <c r="AO5">
-        <v>50201</v>
+        <v>19214</v>
       </c>
       <c r="AP5">
-        <v>57224</v>
+        <v>20320</v>
       </c>
       <c r="AQ5">
-        <v>63404</v>
+        <v>20221</v>
       </c>
       <c r="AR5">
-        <v>60393</v>
+        <v>20136</v>
       </c>
       <c r="AS5">
-        <v>61149</v>
+        <v>19687</v>
       </c>
       <c r="AT5">
-        <v>67266</v>
+        <v>21000</v>
       </c>
       <c r="AU5">
-        <v>74064</v>
+        <v>20381</v>
       </c>
       <c r="AV5">
-        <v>75395</v>
+        <v>24131</v>
       </c>
       <c r="AW5">
-        <v>80153</v>
+        <v>25804</v>
       </c>
       <c r="AX5">
-        <v>84034</v>
+        <v>26340</v>
       </c>
       <c r="AY5">
-        <v>85591</v>
+        <v>27101</v>
       </c>
       <c r="AZ5">
-        <v>92700</v>
+        <v>27315</v>
       </c>
       <c r="BA5">
-        <v>97119</v>
+        <v>25192</v>
       </c>
       <c r="BB5">
-        <v>103718</v>
+        <v>26097</v>
       </c>
       <c r="BC5">
-        <v>102047</v>
+        <v>26283</v>
       </c>
       <c r="BD5">
-        <v>107258</v>
+        <v>26015</v>
       </c>
       <c r="BE5">
-        <v>109864</v>
+        <v>27048</v>
       </c>
       <c r="BF5">
-        <v>110402</v>
+        <v>26113</v>
       </c>
       <c r="BG5">
-        <v>109496</v>
+        <v>27048</v>
       </c>
       <c r="BH5">
-        <v>111847</v>
+        <v>27133</v>
       </c>
       <c r="BI5">
-        <v>114594</v>
+        <v>27161</v>
       </c>
       <c r="BJ5">
-        <v>110204</v>
+        <v>26311</v>
       </c>
       <c r="BK5">
-        <v>109326</v>
+        <v>26028</v>
       </c>
       <c r="BL5">
-        <v>109722</v>
+        <v>26935</v>
       </c>
       <c r="BM5">
-        <v>104936</v>
+        <v>27161</v>
       </c>
       <c r="BN5">
-        <v>104511</v>
+        <v>27133</v>
       </c>
       <c r="BO5">
-        <v>102075</v>
+        <v>27416</v>
       </c>
       <c r="BP5">
-        <v>97827</v>
+        <v>26765</v>
       </c>
       <c r="BQ5">
-        <v>92389</v>
+        <v>27529</v>
       </c>
       <c r="BR5">
-        <v>90633</v>
+        <v>27416</v>
       </c>
       <c r="BS5">
-        <v>84912</v>
+        <v>26935</v>
       </c>
       <c r="BT5">
-        <v>81966</v>
+        <v>26028</v>
       </c>
       <c r="BU5">
-        <v>77576</v>
+        <v>27133</v>
       </c>
       <c r="BV5">
-        <v>72421</v>
+        <v>27359</v>
       </c>
       <c r="BW5">
-        <v>70014</v>
+        <v>26368</v>
       </c>
       <c r="BX5">
-        <v>61715</v>
+        <v>26850</v>
       </c>
       <c r="BY5">
-        <v>58401</v>
+        <v>26623</v>
       </c>
       <c r="BZ5">
-        <v>54889</v>
+        <v>25915</v>
       </c>
       <c r="CA5">
-        <v>50273</v>
+        <v>25972</v>
       </c>
       <c r="CB5">
-        <v>47270</v>
+        <v>25603</v>
       </c>
       <c r="CC5">
-        <v>43277</v>
+        <v>24810</v>
       </c>
       <c r="CD5">
-        <v>41662</v>
+        <v>24414</v>
       </c>
       <c r="CE5">
-        <v>37301</v>
+        <v>25405</v>
       </c>
       <c r="CF5">
-        <v>34015</v>
+        <v>24272</v>
       </c>
       <c r="CG5">
-        <v>31155</v>
+        <v>24839</v>
       </c>
       <c r="CH5">
-        <v>28464</v>
+        <v>24216</v>
       </c>
       <c r="CI5">
-        <v>26255</v>
+        <v>24725</v>
       </c>
       <c r="CJ5">
-        <v>23564</v>
+        <v>23649</v>
       </c>
       <c r="CK5">
-        <v>21525</v>
+        <v>23989</v>
       </c>
       <c r="CL5">
-        <v>19372</v>
+        <v>23366</v>
       </c>
       <c r="CM5">
-        <v>17701</v>
+        <v>22629</v>
       </c>
       <c r="CN5">
-        <v>16880</v>
+        <v>21667</v>
       </c>
       <c r="CO5">
-        <v>15435</v>
+        <v>23139</v>
       </c>
       <c r="CP5">
-        <v>12801</v>
+        <v>23366</v>
       </c>
       <c r="CQ5">
-        <v>12122</v>
+        <v>21667</v>
       </c>
       <c r="CR5">
-        <v>10649</v>
+        <v>22658</v>
       </c>
       <c r="CS5">
-        <v>9969</v>
+        <v>21582</v>
       </c>
       <c r="CT5">
+        <v>21157</v>
+      </c>
+      <c r="CU5">
+        <v>19486</v>
+      </c>
+      <c r="CV5">
+        <v>21383</v>
+      </c>
+      <c r="CW5">
+        <v>20250</v>
+      </c>
+      <c r="CX5">
+        <v>18523</v>
+      </c>
+      <c r="CY5">
+        <v>19684</v>
+      </c>
+      <c r="CZ5">
+        <v>19259</v>
+      </c>
+      <c r="DA5">
+        <v>18268</v>
+      </c>
+      <c r="DB5">
+        <v>17588</v>
+      </c>
+      <c r="DC5">
+        <v>16483</v>
+      </c>
+      <c r="DD5">
+        <v>17050</v>
+      </c>
+      <c r="DE5">
+        <v>16625</v>
+      </c>
+      <c r="DF5">
+        <v>16625</v>
+      </c>
+      <c r="DG5">
+        <v>16313</v>
+      </c>
+      <c r="DH5">
+        <v>15917</v>
+      </c>
+      <c r="DI5">
+        <v>15237</v>
+      </c>
+      <c r="DJ5">
+        <v>15294</v>
+      </c>
+      <c r="DK5">
+        <v>14076</v>
+      </c>
+      <c r="DL5">
+        <v>13510</v>
+      </c>
+      <c r="DM5">
+        <v>14019</v>
+      </c>
+      <c r="DN5">
+        <v>13849</v>
+      </c>
+      <c r="DO5">
+        <v>13764</v>
+      </c>
+      <c r="DP5">
+        <v>12490</v>
+      </c>
+      <c r="DQ5">
+        <v>12518</v>
+      </c>
+      <c r="DR5">
+        <v>12660</v>
+      </c>
+      <c r="DS5">
+        <v>12037</v>
+      </c>
+      <c r="DT5">
+        <v>11754</v>
+      </c>
+      <c r="DU5">
+        <v>11867</v>
+      </c>
+      <c r="DV5">
+        <v>10989</v>
+      </c>
+      <c r="DW5">
+        <v>11159</v>
+      </c>
+      <c r="DX5">
+        <v>9714</v>
+      </c>
+      <c r="DY5">
+        <v>9913</v>
+      </c>
+      <c r="DZ5">
+        <v>9658</v>
+      </c>
+      <c r="EA5">
+        <v>9374</v>
+      </c>
+      <c r="EB5">
+        <v>9884</v>
+      </c>
+      <c r="EC5">
         <v>9091</v>
       </c>
-      <c r="CU5">
-        <v>8440</v>
-      </c>
-      <c r="CV5">
-        <v>7363</v>
-      </c>
-      <c r="CW5">
-        <v>7590</v>
-      </c>
-      <c r="CX5">
+      <c r="ED5">
+        <v>8638</v>
+      </c>
+      <c r="EE5">
+        <v>8638</v>
+      </c>
+      <c r="EF5">
+        <v>8780</v>
+      </c>
+      <c r="EG5">
+        <v>8015</v>
+      </c>
+      <c r="EH5">
+        <v>8015</v>
+      </c>
+      <c r="EI5">
+        <v>7987</v>
+      </c>
+      <c r="EJ5">
+        <v>8270</v>
+      </c>
+      <c r="EK5">
+        <v>7817</v>
+      </c>
+      <c r="EL5">
+        <v>7618</v>
+      </c>
+      <c r="EM5">
+        <v>7477</v>
+      </c>
+      <c r="EN5">
+        <v>5919</v>
+      </c>
+      <c r="EO5">
+        <v>6627</v>
+      </c>
+      <c r="EP5">
+        <v>7250</v>
+      </c>
+      <c r="EQ5">
+        <v>6542</v>
+      </c>
+      <c r="ER5">
         <v>6259</v>
       </c>
-      <c r="CY5">
+      <c r="ES5">
+        <v>6061</v>
+      </c>
+      <c r="ET5">
+        <v>5891</v>
+      </c>
+      <c r="EU5">
+        <v>6372</v>
+      </c>
+      <c r="EV5">
+        <v>5692</v>
+      </c>
+      <c r="EW5">
+        <v>5862</v>
+      </c>
+      <c r="EX5">
+        <v>4956</v>
+      </c>
+      <c r="EY5">
+        <v>5268</v>
+      </c>
+      <c r="EZ5">
+        <v>5721</v>
+      </c>
+      <c r="FA5">
         <v>4984</v>
       </c>
-      <c r="CZ5">
-        <v>4701</v>
-      </c>
-      <c r="DA5">
-        <v>4644</v>
-      </c>
-      <c r="DB5">
-        <v>3936</v>
-      </c>
-      <c r="DC5">
+      <c r="FB5">
+        <v>5211</v>
+      </c>
+      <c r="FC5">
+        <v>5494</v>
+      </c>
+      <c r="FD5">
+        <v>4559</v>
+      </c>
+      <c r="FE5">
+        <v>4928</v>
+      </c>
+      <c r="FF5">
+        <v>5126</v>
+      </c>
+      <c r="FG5">
+        <v>5013</v>
+      </c>
+      <c r="FH5">
+        <v>3993</v>
+      </c>
+      <c r="FI5">
+        <v>4248</v>
+      </c>
+      <c r="FJ5">
+        <v>4503</v>
+      </c>
+      <c r="FK5">
         <v>3908</v>
       </c>
-      <c r="DD5">
-        <v>3965</v>
-      </c>
-      <c r="DE5">
-        <v>3172</v>
-      </c>
-      <c r="DF5">
-        <v>3087</v>
-      </c>
-      <c r="DG5">
-        <v>2945</v>
-      </c>
-      <c r="DH5">
-        <v>2067</v>
-      </c>
-      <c r="DI5">
-        <v>2747</v>
-      </c>
-      <c r="DJ5">
-        <v>1727</v>
-      </c>
-      <c r="DK5">
-        <v>2067</v>
-      </c>
-      <c r="DL5">
-        <v>1727</v>
-      </c>
-      <c r="DM5">
-        <v>1557</v>
-      </c>
-      <c r="DN5">
-        <v>1274</v>
-      </c>
-      <c r="DO5">
-        <v>1161</v>
-      </c>
-      <c r="DP5">
-        <v>1274</v>
-      </c>
-      <c r="DQ5">
-        <v>1217</v>
-      </c>
-      <c r="DR5">
-        <v>1161</v>
-      </c>
-      <c r="DS5">
-        <v>1019</v>
-      </c>
-      <c r="DT5">
-        <v>991</v>
-      </c>
-      <c r="DU5">
-        <v>962</v>
-      </c>
-      <c r="DV5">
-        <v>906</v>
-      </c>
-      <c r="DW5">
-        <v>764</v>
-      </c>
-      <c r="DX5">
-        <v>623</v>
-      </c>
-      <c r="DY5">
-        <v>623</v>
-      </c>
-      <c r="DZ5">
-        <v>679</v>
-      </c>
-      <c r="EA5">
-        <v>623</v>
-      </c>
-      <c r="EB5">
-        <v>594</v>
-      </c>
-      <c r="EC5">
-        <v>623</v>
-      </c>
-      <c r="ED5">
-        <v>594</v>
-      </c>
-      <c r="EE5">
-        <v>538</v>
-      </c>
-      <c r="EF5">
-        <v>311</v>
-      </c>
-      <c r="EG5">
-        <v>481</v>
-      </c>
-      <c r="EH5">
-        <v>453</v>
-      </c>
-      <c r="EI5">
-        <v>396</v>
-      </c>
-      <c r="EJ5">
-        <v>311</v>
-      </c>
-      <c r="EK5">
-        <v>424</v>
-      </c>
-      <c r="EL5">
-        <v>509</v>
-      </c>
-      <c r="EM5">
-        <v>566</v>
-      </c>
-      <c r="EN5">
-        <v>424</v>
-      </c>
-      <c r="EO5">
-        <v>368</v>
-      </c>
-      <c r="EP5">
-        <v>311</v>
-      </c>
-      <c r="EQ5">
-        <v>311</v>
-      </c>
-      <c r="ER5">
-        <v>311</v>
-      </c>
-      <c r="ES5">
-        <v>481</v>
-      </c>
-      <c r="ET5">
-        <v>339</v>
-      </c>
-      <c r="EU5">
-        <v>368</v>
-      </c>
-      <c r="EV5">
-        <v>424</v>
-      </c>
-      <c r="EW5">
-        <v>311</v>
-      </c>
-      <c r="EX5">
-        <v>311</v>
-      </c>
-      <c r="EY5">
-        <v>368</v>
-      </c>
-      <c r="EZ5">
-        <v>339</v>
-      </c>
-      <c r="FA5">
-        <v>339</v>
-      </c>
-      <c r="FB5">
-        <v>311</v>
-      </c>
-      <c r="FC5">
-        <v>368</v>
-      </c>
-      <c r="FD5">
-        <v>396</v>
-      </c>
-      <c r="FE5">
-        <v>453</v>
-      </c>
-      <c r="FF5">
-        <v>283</v>
-      </c>
-      <c r="FG5">
-        <v>339</v>
-      </c>
-      <c r="FH5">
-        <v>311</v>
-      </c>
-      <c r="FI5">
-        <v>424</v>
-      </c>
-      <c r="FJ5">
-        <v>283</v>
-      </c>
-      <c r="FK5">
-        <v>339</v>
-      </c>
       <c r="FL5">
-        <v>339</v>
+        <v>3625</v>
       </c>
       <c r="FM5">
-        <v>254</v>
+        <v>3851</v>
       </c>
       <c r="FN5">
-        <v>339</v>
+        <v>3483</v>
       </c>
     </row>
-    <row r="6" spans="1:171">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>353</v>
       </c>
@@ -4083,328 +4294,328 @@
         <v>69022</v>
       </c>
       <c r="BL6">
-        <v>79983</v>
+        <v>59534</v>
       </c>
       <c r="BM6">
-        <v>76641</v>
+        <v>61743</v>
       </c>
       <c r="BN6">
-        <v>76046</v>
+        <v>62310</v>
       </c>
       <c r="BO6">
-        <v>75763</v>
+        <v>60441</v>
       </c>
       <c r="BP6">
-        <v>79700</v>
+        <v>58345</v>
       </c>
       <c r="BQ6">
-        <v>77236</v>
+        <v>57778</v>
       </c>
       <c r="BR6">
-        <v>78737</v>
+        <v>58203</v>
       </c>
       <c r="BS6">
-        <v>78057</v>
+        <v>57608</v>
       </c>
       <c r="BT6">
-        <v>78426</v>
+        <v>55512</v>
       </c>
       <c r="BU6">
-        <v>77378</v>
+        <v>53671</v>
       </c>
       <c r="BV6">
-        <v>75763</v>
+        <v>52737</v>
       </c>
       <c r="BW6">
-        <v>76160</v>
+        <v>51717</v>
       </c>
       <c r="BX6">
-        <v>73781</v>
+        <v>51264</v>
       </c>
       <c r="BY6">
-        <v>71373</v>
+        <v>48120</v>
       </c>
       <c r="BZ6">
-        <v>73356</v>
+        <v>47950</v>
       </c>
       <c r="CA6">
-        <v>70354</v>
+        <v>46166</v>
       </c>
       <c r="CB6">
-        <v>68569</v>
+        <v>43787</v>
       </c>
       <c r="CC6">
-        <v>64462</v>
+        <v>43362</v>
       </c>
       <c r="CD6">
-        <v>63896</v>
+        <v>40615</v>
       </c>
       <c r="CE6">
-        <v>59732</v>
+        <v>40558</v>
       </c>
       <c r="CF6">
-        <v>62168</v>
+        <v>38122</v>
       </c>
       <c r="CG6">
-        <v>56249</v>
+        <v>35856</v>
       </c>
       <c r="CH6">
-        <v>52199</v>
+        <v>33307</v>
       </c>
       <c r="CI6">
-        <v>50641</v>
+        <v>33590</v>
       </c>
       <c r="CJ6">
-        <v>49565</v>
+        <v>32571</v>
       </c>
       <c r="CK6">
-        <v>47752</v>
+        <v>31070</v>
       </c>
       <c r="CL6">
-        <v>44155</v>
+        <v>28917</v>
       </c>
       <c r="CM6">
-        <v>41719</v>
+        <v>27076</v>
       </c>
       <c r="CN6">
-        <v>41379</v>
+        <v>26453</v>
       </c>
       <c r="CO6">
-        <v>36111</v>
+        <v>26368</v>
       </c>
       <c r="CP6">
-        <v>36536</v>
+        <v>24499</v>
       </c>
       <c r="CQ6">
-        <v>32939</v>
+        <v>23168</v>
       </c>
       <c r="CR6">
-        <v>30305</v>
+        <v>22318</v>
       </c>
       <c r="CS6">
-        <v>28351</v>
+        <v>19741</v>
       </c>
       <c r="CT6">
-        <v>26113</v>
+        <v>19542</v>
       </c>
       <c r="CU6">
-        <v>25575</v>
+        <v>19882</v>
       </c>
       <c r="CV6">
-        <v>23423</v>
+        <v>18806</v>
       </c>
       <c r="CW6">
-        <v>22573</v>
+        <v>16823</v>
       </c>
       <c r="CX6">
-        <v>19202</v>
+        <v>17135</v>
       </c>
       <c r="CY6">
-        <v>20052</v>
+        <v>15662</v>
       </c>
       <c r="CZ6">
-        <v>18438</v>
+        <v>14104</v>
       </c>
       <c r="DA6">
-        <v>16653</v>
+        <v>14048</v>
       </c>
       <c r="DB6">
-        <v>15860</v>
+        <v>14133</v>
       </c>
       <c r="DC6">
-        <v>14104</v>
+        <v>12348</v>
       </c>
       <c r="DD6">
-        <v>13849</v>
+        <v>11895</v>
       </c>
       <c r="DE6">
-        <v>12915</v>
+        <v>12716</v>
       </c>
       <c r="DF6">
-        <v>11130</v>
+        <v>10366</v>
       </c>
       <c r="DG6">
-        <v>10507</v>
+        <v>10932</v>
       </c>
       <c r="DH6">
-        <v>10196</v>
+        <v>10082</v>
       </c>
       <c r="DI6">
-        <v>9403</v>
+        <v>9856</v>
       </c>
       <c r="DJ6">
-        <v>8780</v>
+        <v>8383</v>
       </c>
       <c r="DK6">
-        <v>7647</v>
+        <v>7732</v>
       </c>
       <c r="DL6">
-        <v>7278</v>
+        <v>7817</v>
       </c>
       <c r="DM6">
-        <v>7533</v>
+        <v>7817</v>
       </c>
       <c r="DN6">
-        <v>6004</v>
+        <v>7420</v>
       </c>
       <c r="DO6">
-        <v>6769</v>
+        <v>6231</v>
       </c>
       <c r="DP6">
-        <v>5437</v>
+        <v>6372</v>
       </c>
       <c r="DQ6">
-        <v>5296</v>
+        <v>5806</v>
       </c>
       <c r="DR6">
+        <v>5239</v>
+      </c>
+      <c r="DS6">
+        <v>5069</v>
+      </c>
+      <c r="DT6">
+        <v>5381</v>
+      </c>
+      <c r="DU6">
+        <v>5126</v>
+      </c>
+      <c r="DV6">
         <v>4531</v>
       </c>
-      <c r="DS6">
-        <v>4644</v>
-      </c>
-      <c r="DT6">
-        <v>3597</v>
-      </c>
-      <c r="DU6">
-        <v>3766</v>
-      </c>
-      <c r="DV6">
+      <c r="DW6">
+        <v>4361</v>
+      </c>
+      <c r="DX6">
+        <v>4276</v>
+      </c>
+      <c r="DY6">
         <v>3823</v>
       </c>
-      <c r="DW6">
-        <v>3370</v>
-      </c>
-      <c r="DX6">
+      <c r="DZ6">
+        <v>4191</v>
+      </c>
+      <c r="EA6">
+        <v>3512</v>
+      </c>
+      <c r="EB6">
+        <v>3172</v>
+      </c>
+      <c r="EC6">
+        <v>3087</v>
+      </c>
+      <c r="ED6">
+        <v>3483</v>
+      </c>
+      <c r="EE6">
+        <v>3115</v>
+      </c>
+      <c r="EF6">
+        <v>3030</v>
+      </c>
+      <c r="EG6">
+        <v>2520</v>
+      </c>
+      <c r="EH6">
+        <v>2407</v>
+      </c>
+      <c r="EI6">
+        <v>2747</v>
+      </c>
+      <c r="EJ6">
+        <v>2067</v>
+      </c>
+      <c r="EK6">
+        <v>2180</v>
+      </c>
+      <c r="EL6">
         <v>2492</v>
       </c>
-      <c r="DY6">
-        <v>2747</v>
-      </c>
-      <c r="DZ6">
+      <c r="EM6">
         <v>2294</v>
       </c>
-      <c r="EA6">
-        <v>2464</v>
-      </c>
-      <c r="EB6">
-        <v>2095</v>
-      </c>
-      <c r="EC6">
-        <v>1812</v>
-      </c>
-      <c r="ED6">
-        <v>1642</v>
-      </c>
-      <c r="EE6">
-        <v>1925</v>
-      </c>
-      <c r="EF6">
+      <c r="EN6">
+        <v>2350</v>
+      </c>
+      <c r="EO6">
+        <v>1529</v>
+      </c>
+      <c r="EP6">
+        <v>1869</v>
+      </c>
+      <c r="EQ6">
+        <v>1671</v>
+      </c>
+      <c r="ER6">
+        <v>1699</v>
+      </c>
+      <c r="ES6">
+        <v>1529</v>
+      </c>
+      <c r="ET6">
         <v>1784</v>
       </c>
-      <c r="EG6">
-        <v>1642</v>
-      </c>
-      <c r="EH6">
+      <c r="EU6">
+        <v>1699</v>
+      </c>
+      <c r="EV6">
         <v>1727</v>
       </c>
-      <c r="EI6">
+      <c r="EW6">
         <v>1416</v>
       </c>
-      <c r="EJ6">
+      <c r="EX6">
+        <v>1217</v>
+      </c>
+      <c r="EY6">
+        <v>1359</v>
+      </c>
+      <c r="EZ6">
+        <v>1472</v>
+      </c>
+      <c r="FA6">
         <v>1444</v>
       </c>
-      <c r="EK6">
-        <v>1217</v>
-      </c>
-      <c r="EL6">
-        <v>1501</v>
-      </c>
-      <c r="EM6">
-        <v>962</v>
-      </c>
-      <c r="EN6">
-        <v>1161</v>
-      </c>
-      <c r="EO6">
-        <v>1557</v>
-      </c>
-      <c r="EP6">
+      <c r="FB6">
+        <v>1274</v>
+      </c>
+      <c r="FC6">
+        <v>1529</v>
+      </c>
+      <c r="FD6">
+        <v>1387</v>
+      </c>
+      <c r="FE6">
+        <v>1359</v>
+      </c>
+      <c r="FF6">
         <v>1416</v>
       </c>
-      <c r="EQ6">
-        <v>1161</v>
-      </c>
-      <c r="ER6">
-        <v>849</v>
-      </c>
-      <c r="ES6">
-        <v>1019</v>
-      </c>
-      <c r="ET6">
-        <v>906</v>
-      </c>
-      <c r="EU6">
-        <v>793</v>
-      </c>
-      <c r="EV6">
-        <v>962</v>
-      </c>
-      <c r="EW6">
-        <v>679</v>
-      </c>
-      <c r="EX6">
-        <v>708</v>
-      </c>
-      <c r="EY6">
-        <v>878</v>
-      </c>
-      <c r="EZ6">
-        <v>708</v>
-      </c>
-      <c r="FA6">
-        <v>849</v>
-      </c>
-      <c r="FB6">
-        <v>821</v>
-      </c>
-      <c r="FC6">
-        <v>538</v>
-      </c>
-      <c r="FD6">
-        <v>538</v>
-      </c>
-      <c r="FE6">
-        <v>623</v>
-      </c>
-      <c r="FF6">
-        <v>594</v>
-      </c>
       <c r="FG6">
-        <v>566</v>
+        <v>1529</v>
       </c>
       <c r="FH6">
-        <v>623</v>
+        <v>1246</v>
       </c>
       <c r="FI6">
-        <v>538</v>
+        <v>1246</v>
       </c>
       <c r="FJ6">
-        <v>623</v>
+        <v>991</v>
       </c>
       <c r="FK6">
-        <v>594</v>
+        <v>1359</v>
       </c>
       <c r="FL6">
-        <v>849</v>
+        <v>1274</v>
       </c>
       <c r="FM6">
-        <v>679</v>
+        <v>1331</v>
       </c>
       <c r="FN6">
-        <v>679</v>
+        <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:171">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>354</v>
       </c>
@@ -4595,328 +4806,328 @@
         <v>69022</v>
       </c>
       <c r="BL7">
-        <v>89868</v>
+        <v>48658</v>
       </c>
       <c r="BM7">
-        <v>84968</v>
+        <v>50131</v>
       </c>
       <c r="BN7">
-        <v>83354</v>
+        <v>52199</v>
       </c>
       <c r="BO7">
-        <v>83184</v>
+        <v>50188</v>
       </c>
       <c r="BP7">
-        <v>85450</v>
+        <v>50216</v>
       </c>
       <c r="BQ7">
-        <v>88480</v>
+        <v>48177</v>
       </c>
       <c r="BR7">
-        <v>89811</v>
+        <v>47242</v>
       </c>
       <c r="BS7">
-        <v>89330</v>
+        <v>46222</v>
       </c>
       <c r="BT7">
-        <v>87716</v>
+        <v>44098</v>
       </c>
       <c r="BU7">
-        <v>91652</v>
+        <v>44013</v>
       </c>
       <c r="BV7">
-        <v>90406</v>
+        <v>42087</v>
       </c>
       <c r="BW7">
-        <v>89047</v>
+        <v>39425</v>
       </c>
       <c r="BX7">
-        <v>87800</v>
+        <v>39312</v>
       </c>
       <c r="BY7">
-        <v>85308</v>
+        <v>37018</v>
       </c>
       <c r="BZ7">
-        <v>83297</v>
+        <v>36564</v>
       </c>
       <c r="CA7">
-        <v>81654</v>
+        <v>34723</v>
       </c>
       <c r="CB7">
-        <v>79247</v>
+        <v>33760</v>
       </c>
       <c r="CC7">
-        <v>74999</v>
+        <v>31721</v>
       </c>
       <c r="CD7">
-        <v>71571</v>
+        <v>29795</v>
       </c>
       <c r="CE7">
-        <v>69249</v>
+        <v>29314</v>
       </c>
       <c r="CF7">
-        <v>67946</v>
+        <v>27105</v>
       </c>
       <c r="CG7">
-        <v>65227</v>
+        <v>26708</v>
       </c>
       <c r="CH7">
-        <v>59449</v>
+        <v>25009</v>
       </c>
       <c r="CI7">
-        <v>56730</v>
+        <v>23876</v>
       </c>
       <c r="CJ7">
-        <v>51434</v>
+        <v>23649</v>
       </c>
       <c r="CK7">
-        <v>50471</v>
+        <v>21808</v>
       </c>
       <c r="CL7">
-        <v>45628</v>
+        <v>20987</v>
       </c>
       <c r="CM7">
-        <v>44665</v>
+        <v>20335</v>
       </c>
       <c r="CN7">
-        <v>40190</v>
+        <v>19061</v>
       </c>
       <c r="CO7">
-        <v>38519</v>
+        <v>17900</v>
       </c>
       <c r="CP7">
-        <v>34299</v>
+        <v>17985</v>
       </c>
       <c r="CQ7">
-        <v>31749</v>
+        <v>16144</v>
       </c>
       <c r="CR7">
-        <v>30192</v>
+        <v>14727</v>
       </c>
       <c r="CS7">
-        <v>26906</v>
+        <v>14982</v>
       </c>
       <c r="CT7">
-        <v>24131</v>
+        <v>14303</v>
       </c>
       <c r="CU7">
-        <v>25433</v>
+        <v>14133</v>
       </c>
       <c r="CV7">
-        <v>23423</v>
+        <v>13255</v>
       </c>
       <c r="CW7">
-        <v>20675</v>
+        <v>12490</v>
       </c>
       <c r="CX7">
-        <v>18919</v>
+        <v>11244</v>
       </c>
       <c r="CY7">
-        <v>16285</v>
+        <v>12008</v>
       </c>
       <c r="CZ7">
-        <v>15775</v>
+        <v>10875</v>
       </c>
       <c r="DA7">
-        <v>13991</v>
+        <v>10309</v>
       </c>
       <c r="DB7">
-        <v>13538</v>
+        <v>10026</v>
       </c>
       <c r="DC7">
-        <v>11697</v>
+        <v>9459</v>
       </c>
       <c r="DD7">
-        <v>11782</v>
+        <v>9573</v>
       </c>
       <c r="DE7">
-        <v>9601</v>
+        <v>8270</v>
       </c>
       <c r="DF7">
-        <v>9799</v>
+        <v>7902</v>
       </c>
       <c r="DG7">
-        <v>9261</v>
+        <v>7873</v>
       </c>
       <c r="DH7">
-        <v>8298</v>
+        <v>6939</v>
       </c>
       <c r="DI7">
-        <v>7732</v>
+        <v>6910</v>
       </c>
       <c r="DJ7">
-        <v>6769</v>
+        <v>6146</v>
       </c>
       <c r="DK7">
-        <v>6627</v>
+        <v>6570</v>
       </c>
       <c r="DL7">
-        <v>5721</v>
+        <v>6259</v>
       </c>
       <c r="DM7">
-        <v>5324</v>
+        <v>5891</v>
       </c>
       <c r="DN7">
-        <v>4559</v>
+        <v>5239</v>
       </c>
       <c r="DO7">
-        <v>4701</v>
+        <v>6061</v>
       </c>
       <c r="DP7">
-        <v>4305</v>
+        <v>5041</v>
       </c>
       <c r="DQ7">
+        <v>5013</v>
+      </c>
+      <c r="DR7">
+        <v>4446</v>
+      </c>
+      <c r="DS7">
+        <v>4729</v>
+      </c>
+      <c r="DT7">
         <v>3795</v>
       </c>
-      <c r="DR7">
-        <v>3398</v>
-      </c>
-      <c r="DS7">
-        <v>3058</v>
-      </c>
-      <c r="DT7">
-        <v>3568</v>
-      </c>
       <c r="DU7">
+        <v>3993</v>
+      </c>
+      <c r="DV7">
+        <v>3908</v>
+      </c>
+      <c r="DW7">
+        <v>3823</v>
+      </c>
+      <c r="DX7">
+        <v>3880</v>
+      </c>
+      <c r="DY7">
+        <v>3455</v>
+      </c>
+      <c r="DZ7">
+        <v>3143</v>
+      </c>
+      <c r="EA7">
+        <v>3200</v>
+      </c>
+      <c r="EB7">
+        <v>3002</v>
+      </c>
+      <c r="EC7">
+        <v>3313</v>
+      </c>
+      <c r="ED7">
+        <v>3228</v>
+      </c>
+      <c r="EE7">
+        <v>2520</v>
+      </c>
+      <c r="EF7">
+        <v>2860</v>
+      </c>
+      <c r="EG7">
+        <v>2832</v>
+      </c>
+      <c r="EH7">
+        <v>2662</v>
+      </c>
+      <c r="EI7">
+        <v>2634</v>
+      </c>
+      <c r="EJ7">
+        <v>2294</v>
+      </c>
+      <c r="EK7">
+        <v>2209</v>
+      </c>
+      <c r="EL7">
+        <v>1982</v>
+      </c>
+      <c r="EM7">
         <v>2464</v>
       </c>
-      <c r="DV7">
-        <v>2435</v>
-      </c>
-      <c r="DW7">
-        <v>2747</v>
-      </c>
-      <c r="DX7">
-        <v>2464</v>
-      </c>
-      <c r="DY7">
+      <c r="EN7">
+        <v>1982</v>
+      </c>
+      <c r="EO7">
+        <v>2039</v>
+      </c>
+      <c r="EP7">
+        <v>1869</v>
+      </c>
+      <c r="EQ7">
+        <v>2010</v>
+      </c>
+      <c r="ER7">
+        <v>1869</v>
+      </c>
+      <c r="ES7">
+        <v>2039</v>
+      </c>
+      <c r="ET7">
+        <v>1869</v>
+      </c>
+      <c r="EU7">
+        <v>1302</v>
+      </c>
+      <c r="EV7">
         <v>1699</v>
       </c>
-      <c r="DZ7">
-        <v>1954</v>
-      </c>
-      <c r="EA7">
-        <v>2039</v>
-      </c>
-      <c r="EB7">
+      <c r="EW7">
+        <v>1727</v>
+      </c>
+      <c r="EX7">
         <v>1756</v>
       </c>
-      <c r="EC7">
+      <c r="EY7">
+        <v>1557</v>
+      </c>
+      <c r="EZ7">
+        <v>1671</v>
+      </c>
+      <c r="FA7">
+        <v>1557</v>
+      </c>
+      <c r="FB7">
+        <v>1756</v>
+      </c>
+      <c r="FC7">
+        <v>1557</v>
+      </c>
+      <c r="FD7">
+        <v>1586</v>
+      </c>
+      <c r="FE7">
+        <v>1416</v>
+      </c>
+      <c r="FF7">
+        <v>1331</v>
+      </c>
+      <c r="FG7">
+        <v>1501</v>
+      </c>
+      <c r="FH7">
+        <v>1161</v>
+      </c>
+      <c r="FI7">
+        <v>1331</v>
+      </c>
+      <c r="FJ7">
+        <v>1416</v>
+      </c>
+      <c r="FK7">
         <v>1529</v>
       </c>
-      <c r="ED7">
-        <v>1416</v>
-      </c>
-      <c r="EE7">
-        <v>1444</v>
-      </c>
-      <c r="EF7">
-        <v>1274</v>
-      </c>
-      <c r="EG7">
-        <v>1132</v>
-      </c>
-      <c r="EH7">
-        <v>1217</v>
-      </c>
-      <c r="EI7">
+      <c r="FL7">
+        <v>1529</v>
+      </c>
+      <c r="FM7">
+        <v>1359</v>
+      </c>
+      <c r="FN7">
         <v>1047</v>
       </c>
-      <c r="EJ7">
-        <v>793</v>
-      </c>
-      <c r="EK7">
-        <v>962</v>
-      </c>
-      <c r="EL7">
-        <v>1132</v>
-      </c>
-      <c r="EM7">
-        <v>934</v>
-      </c>
-      <c r="EN7">
-        <v>934</v>
-      </c>
-      <c r="EO7">
-        <v>793</v>
-      </c>
-      <c r="EP7">
-        <v>594</v>
-      </c>
-      <c r="EQ7">
-        <v>708</v>
-      </c>
-      <c r="ER7">
-        <v>708</v>
-      </c>
-      <c r="ES7">
-        <v>481</v>
-      </c>
-      <c r="ET7">
-        <v>679</v>
-      </c>
-      <c r="EU7">
-        <v>651</v>
-      </c>
-      <c r="EV7">
-        <v>594</v>
-      </c>
-      <c r="EW7">
-        <v>566</v>
-      </c>
-      <c r="EX7">
-        <v>736</v>
-      </c>
-      <c r="EY7">
-        <v>793</v>
-      </c>
-      <c r="EZ7">
-        <v>566</v>
-      </c>
-      <c r="FA7">
-        <v>708</v>
-      </c>
-      <c r="FB7">
-        <v>453</v>
-      </c>
-      <c r="FC7">
-        <v>679</v>
-      </c>
-      <c r="FD7">
-        <v>651</v>
-      </c>
-      <c r="FE7">
-        <v>594</v>
-      </c>
-      <c r="FF7">
-        <v>368</v>
-      </c>
-      <c r="FG7">
-        <v>538</v>
-      </c>
-      <c r="FH7">
-        <v>509</v>
-      </c>
-      <c r="FI7">
-        <v>424</v>
-      </c>
-      <c r="FJ7">
-        <v>481</v>
-      </c>
-      <c r="FK7">
-        <v>538</v>
-      </c>
-      <c r="FL7">
-        <v>509</v>
-      </c>
-      <c r="FM7">
-        <v>538</v>
-      </c>
-      <c r="FN7">
-        <v>368</v>
-      </c>
     </row>
-    <row r="8" spans="1:171">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -5428,12 +5639,12 @@
         <v>962</v>
       </c>
     </row>
-    <row r="9" spans="1:171">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:171">
+    <row r="10" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>351</v>
       </c>
@@ -5537,415 +5748,415 @@
         <v>64</v>
       </c>
       <c r="AI10">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ10">
         <v>38</v>
       </c>
       <c r="AK10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL10">
         <v>62</v>
       </c>
       <c r="AM10">
+        <v>38</v>
+      </c>
+      <c r="AN10">
+        <v>86</v>
+      </c>
+      <c r="AO10">
         <v>46</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>93</v>
       </c>
-      <c r="AO10">
-        <v>51</v>
-      </c>
-      <c r="AP10">
-        <v>102</v>
-      </c>
       <c r="AQ10">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="AR10">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="AS10">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="AT10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU10">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="AV10">
         <v>113</v>
       </c>
       <c r="AW10">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="AX10">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="AY10">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="AZ10">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="BA10">
         <v>198</v>
       </c>
       <c r="BB10">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="BC10">
         <v>169</v>
       </c>
       <c r="BD10">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="BE10">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="BF10">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="BG10">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="BH10">
         <v>339</v>
       </c>
       <c r="BI10">
+        <v>396</v>
+      </c>
+      <c r="BJ10">
+        <v>226</v>
+      </c>
+      <c r="BK10">
+        <v>226</v>
+      </c>
+      <c r="BL10">
+        <v>339</v>
+      </c>
+      <c r="BM10">
+        <v>339</v>
+      </c>
+      <c r="BN10">
+        <v>424</v>
+      </c>
+      <c r="BO10">
+        <v>368</v>
+      </c>
+      <c r="BP10">
+        <v>424</v>
+      </c>
+      <c r="BQ10">
         <v>453</v>
       </c>
-      <c r="BJ10">
+      <c r="BR10">
+        <v>339</v>
+      </c>
+      <c r="BS10">
+        <v>339</v>
+      </c>
+      <c r="BT10">
+        <v>481</v>
+      </c>
+      <c r="BU10">
         <v>453</v>
       </c>
-      <c r="BK10">
-        <v>566</v>
-      </c>
-      <c r="BL10">
+      <c r="BV10">
+        <v>538</v>
+      </c>
+      <c r="BW10">
+        <v>424</v>
+      </c>
+      <c r="BX10">
+        <v>424</v>
+      </c>
+      <c r="BY10">
+        <v>396</v>
+      </c>
+      <c r="BZ10">
+        <v>424</v>
+      </c>
+      <c r="CA10">
         <v>481</v>
       </c>
-      <c r="BM10">
+      <c r="CB10">
+        <v>396</v>
+      </c>
+      <c r="CC10">
+        <v>396</v>
+      </c>
+      <c r="CD10">
+        <v>396</v>
+      </c>
+      <c r="CE10">
         <v>679</v>
       </c>
-      <c r="BN10">
+      <c r="CF10">
+        <v>396</v>
+      </c>
+      <c r="CG10">
+        <v>424</v>
+      </c>
+      <c r="CH10">
+        <v>453</v>
+      </c>
+      <c r="CI10">
+        <v>481</v>
+      </c>
+      <c r="CJ10">
         <v>509</v>
       </c>
-      <c r="BO10">
-        <v>708</v>
-      </c>
-      <c r="BP10">
-        <v>821</v>
-      </c>
-      <c r="BQ10">
-        <v>708</v>
-      </c>
-      <c r="BR10">
-        <v>679</v>
-      </c>
-      <c r="BS10">
-        <v>679</v>
-      </c>
-      <c r="BT10">
-        <v>821</v>
-      </c>
-      <c r="BU10">
-        <v>679</v>
-      </c>
-      <c r="BV10">
-        <v>821</v>
-      </c>
-      <c r="BW10">
-        <v>793</v>
-      </c>
-      <c r="BX10">
-        <v>736</v>
-      </c>
-      <c r="BY10">
-        <v>793</v>
-      </c>
-      <c r="BZ10">
-        <v>906</v>
-      </c>
-      <c r="CA10">
-        <v>849</v>
-      </c>
-      <c r="CB10">
-        <v>821</v>
-      </c>
-      <c r="CC10">
-        <v>991</v>
-      </c>
-      <c r="CD10">
-        <v>764</v>
-      </c>
-      <c r="CE10">
-        <v>1019</v>
-      </c>
-      <c r="CF10">
-        <v>736</v>
-      </c>
-      <c r="CG10">
-        <v>934</v>
-      </c>
-      <c r="CH10">
-        <v>793</v>
-      </c>
-      <c r="CI10">
-        <v>878</v>
-      </c>
-      <c r="CJ10">
-        <v>793</v>
-      </c>
       <c r="CK10">
-        <v>764</v>
+        <v>368</v>
       </c>
       <c r="CL10">
-        <v>849</v>
+        <v>453</v>
       </c>
       <c r="CM10">
-        <v>849</v>
+        <v>453</v>
       </c>
       <c r="CN10">
-        <v>878</v>
+        <v>538</v>
       </c>
       <c r="CO10">
-        <v>793</v>
+        <v>481</v>
       </c>
       <c r="CP10">
-        <v>679</v>
+        <v>509</v>
       </c>
       <c r="CQ10">
-        <v>793</v>
+        <v>339</v>
       </c>
       <c r="CR10">
-        <v>623</v>
+        <v>424</v>
       </c>
       <c r="CS10">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="CT10">
-        <v>594</v>
+        <v>368</v>
       </c>
       <c r="CU10">
-        <v>623</v>
+        <v>396</v>
       </c>
       <c r="CV10">
+        <v>509</v>
+      </c>
+      <c r="CW10">
         <v>453</v>
       </c>
-      <c r="CW10">
-        <v>538</v>
-      </c>
       <c r="CX10">
-        <v>594</v>
+        <v>453</v>
       </c>
       <c r="CY10">
-        <v>538</v>
+        <v>424</v>
       </c>
       <c r="CZ10">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="DA10">
+        <v>509</v>
+      </c>
+      <c r="DB10">
         <v>311</v>
       </c>
-      <c r="DB10">
+      <c r="DC10">
         <v>424</v>
       </c>
-      <c r="DC10">
-        <v>339</v>
-      </c>
       <c r="DD10">
+        <v>368</v>
+      </c>
+      <c r="DE10">
         <v>396</v>
       </c>
-      <c r="DE10">
-        <v>339</v>
-      </c>
       <c r="DF10">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="DG10">
         <v>254</v>
       </c>
       <c r="DH10">
+        <v>254</v>
+      </c>
+      <c r="DI10">
+        <v>283</v>
+      </c>
+      <c r="DJ10">
+        <v>311</v>
+      </c>
+      <c r="DK10">
+        <v>283</v>
+      </c>
+      <c r="DL10">
+        <v>169</v>
+      </c>
+      <c r="DM10">
+        <v>283</v>
+      </c>
+      <c r="DN10">
+        <v>396</v>
+      </c>
+      <c r="DO10">
+        <v>481</v>
+      </c>
+      <c r="DP10">
         <v>226</v>
       </c>
-      <c r="DI10">
+      <c r="DQ10">
+        <v>254</v>
+      </c>
+      <c r="DR10">
+        <v>226</v>
+      </c>
+      <c r="DS10">
         <v>169</v>
       </c>
-      <c r="DJ10">
-        <v>226</v>
-      </c>
-      <c r="DK10">
+      <c r="DT10">
         <v>254</v>
       </c>
-      <c r="DL10">
+      <c r="DU10">
         <v>198</v>
       </c>
-      <c r="DM10">
+      <c r="DV10">
+        <v>113</v>
+      </c>
+      <c r="DW10">
+        <v>169</v>
+      </c>
+      <c r="DX10">
         <v>198</v>
       </c>
-      <c r="DN10">
+      <c r="DY10">
+        <v>169</v>
+      </c>
+      <c r="DZ10">
+        <v>141</v>
+      </c>
+      <c r="EA10">
+        <v>141</v>
+      </c>
+      <c r="EB10">
+        <v>141</v>
+      </c>
+      <c r="EC10">
+        <v>169</v>
+      </c>
+      <c r="ED10">
+        <v>84</v>
+      </c>
+      <c r="EE10">
+        <v>56</v>
+      </c>
+      <c r="EF10">
+        <v>141</v>
+      </c>
+      <c r="EG10">
+        <v>169</v>
+      </c>
+      <c r="EH10">
         <v>113</v>
       </c>
-      <c r="DO10">
-        <v>169</v>
-      </c>
-      <c r="DP10">
-        <v>169</v>
-      </c>
-      <c r="DQ10">
+      <c r="EI10">
         <v>113</v>
       </c>
-      <c r="DR10">
-        <v>198</v>
-      </c>
-      <c r="DS10">
+      <c r="EJ10">
         <v>113</v>
       </c>
-      <c r="DT10">
-        <v>56</v>
-      </c>
-      <c r="DU10">
-        <v>56</v>
-      </c>
-      <c r="DV10">
+      <c r="EK10">
+        <v>141</v>
+      </c>
+      <c r="EL10">
+        <v>56</v>
+      </c>
+      <c r="EM10">
+        <v>113</v>
+      </c>
+      <c r="EN10">
+        <v>56</v>
+      </c>
+      <c r="EO10">
+        <v>113</v>
+      </c>
+      <c r="EP10">
+        <v>113</v>
+      </c>
+      <c r="EQ10">
+        <v>56</v>
+      </c>
+      <c r="ER10">
         <v>84</v>
       </c>
-      <c r="DW10">
-        <v>141</v>
-      </c>
-      <c r="DX10">
-        <v>56</v>
-      </c>
-      <c r="DY10">
+      <c r="ES10">
+        <v>56</v>
+      </c>
+      <c r="ET10">
+        <v>113</v>
+      </c>
+      <c r="EU10">
+        <v>84</v>
+      </c>
+      <c r="EV10">
+        <v>56</v>
+      </c>
+      <c r="EW10">
+        <v>56</v>
+      </c>
+      <c r="EX10">
         <v>28</v>
       </c>
-      <c r="DZ10">
-        <v>84</v>
-      </c>
-      <c r="EA10">
+      <c r="EY10">
+        <v>56</v>
+      </c>
+      <c r="EZ10">
         <v>113</v>
       </c>
-      <c r="EB10">
+      <c r="FA10">
+        <v>56</v>
+      </c>
+      <c r="FB10">
+        <v>0</v>
+      </c>
+      <c r="FC10">
+        <v>56</v>
+      </c>
+      <c r="FD10">
         <v>28</v>
       </c>
-      <c r="EC10">
+      <c r="FE10">
+        <v>0</v>
+      </c>
+      <c r="FF10">
+        <v>56</v>
+      </c>
+      <c r="FG10">
+        <v>0</v>
+      </c>
+      <c r="FH10">
+        <v>56</v>
+      </c>
+      <c r="FI10">
+        <v>0</v>
+      </c>
+      <c r="FJ10">
+        <v>56</v>
+      </c>
+      <c r="FK10">
         <v>28</v>
       </c>
-      <c r="ED10">
+      <c r="FL10">
+        <v>0</v>
+      </c>
+      <c r="FM10">
         <v>28</v>
       </c>
-      <c r="EE10">
+      <c r="FN10">
         <v>28</v>
       </c>
-      <c r="EF10">
-        <v>28</v>
-      </c>
-      <c r="EG10">
-        <v>28</v>
-      </c>
-      <c r="EH10">
-        <v>0</v>
-      </c>
-      <c r="EI10">
-        <v>0</v>
-      </c>
-      <c r="EJ10">
-        <v>0</v>
-      </c>
-      <c r="EK10">
-        <v>0</v>
-      </c>
-      <c r="EL10">
-        <v>0</v>
-      </c>
-      <c r="EM10">
-        <v>0</v>
-      </c>
-      <c r="EN10">
-        <v>0</v>
-      </c>
-      <c r="EO10">
-        <v>0</v>
-      </c>
-      <c r="EP10">
-        <v>56</v>
-      </c>
-      <c r="EQ10">
-        <v>0</v>
-      </c>
-      <c r="ER10">
-        <v>0</v>
-      </c>
-      <c r="ES10">
-        <v>0</v>
-      </c>
-      <c r="ET10">
-        <v>0</v>
-      </c>
-      <c r="EU10">
-        <v>0</v>
-      </c>
-      <c r="EV10">
-        <v>0</v>
-      </c>
-      <c r="EW10">
-        <v>0</v>
-      </c>
-      <c r="EX10">
-        <v>0</v>
-      </c>
-      <c r="EY10">
-        <v>0</v>
-      </c>
-      <c r="EZ10">
-        <v>0</v>
-      </c>
-      <c r="FA10">
-        <v>0</v>
-      </c>
-      <c r="FB10">
-        <v>0</v>
-      </c>
-      <c r="FC10">
-        <v>0</v>
-      </c>
-      <c r="FD10">
-        <v>0</v>
-      </c>
-      <c r="FE10">
-        <v>0</v>
-      </c>
-      <c r="FF10">
-        <v>0</v>
-      </c>
-      <c r="FG10">
-        <v>0</v>
-      </c>
-      <c r="FH10">
-        <v>0</v>
-      </c>
-      <c r="FI10">
-        <v>0</v>
-      </c>
-      <c r="FJ10">
-        <v>0</v>
-      </c>
-      <c r="FK10">
-        <v>0</v>
-      </c>
-      <c r="FL10">
-        <v>0</v>
-      </c>
-      <c r="FM10">
-        <v>0</v>
-      </c>
-      <c r="FN10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:171">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>352</v>
       </c>
@@ -6049,247 +6260,247 @@
         <v>64</v>
       </c>
       <c r="AI11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ11">
         <v>38</v>
       </c>
       <c r="AK11">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AL11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AM11">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AN11">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AO11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AP11">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AQ11">
         <v>140</v>
       </c>
       <c r="AR11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AS11">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="AT11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU11">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AV11">
+        <v>139</v>
+      </c>
+      <c r="AW11">
+        <v>111</v>
+      </c>
+      <c r="AX11">
+        <v>56</v>
+      </c>
+      <c r="AY11">
+        <v>112</v>
+      </c>
+      <c r="AZ11">
+        <v>197</v>
+      </c>
+      <c r="BA11">
+        <v>112</v>
+      </c>
+      <c r="BB11">
+        <v>111</v>
+      </c>
+      <c r="BC11">
         <v>141</v>
       </c>
-      <c r="AW11">
+      <c r="BD11">
+        <v>226</v>
+      </c>
+      <c r="BE11">
+        <v>169</v>
+      </c>
+      <c r="BF11">
         <v>141</v>
       </c>
-      <c r="AX11">
+      <c r="BG11">
+        <v>139</v>
+      </c>
+      <c r="BH11">
+        <v>169</v>
+      </c>
+      <c r="BI11">
+        <v>283</v>
+      </c>
+      <c r="BJ11">
         <v>198</v>
       </c>
-      <c r="AY11">
+      <c r="BK11">
+        <v>226</v>
+      </c>
+      <c r="BL11">
+        <v>283</v>
+      </c>
+      <c r="BM11">
+        <v>283</v>
+      </c>
+      <c r="BN11">
+        <v>226</v>
+      </c>
+      <c r="BO11">
+        <v>339</v>
+      </c>
+      <c r="BP11">
+        <v>198</v>
+      </c>
+      <c r="BQ11">
+        <v>311</v>
+      </c>
+      <c r="BR11">
         <v>254</v>
       </c>
-      <c r="AZ11">
+      <c r="BS11">
+        <v>226</v>
+      </c>
+      <c r="BT11">
+        <v>226</v>
+      </c>
+      <c r="BU11">
+        <v>226</v>
+      </c>
+      <c r="BV11">
+        <v>226</v>
+      </c>
+      <c r="BW11">
+        <v>254</v>
+      </c>
+      <c r="BX11">
+        <v>226</v>
+      </c>
+      <c r="BY11">
+        <v>226</v>
+      </c>
+      <c r="BZ11">
+        <v>254</v>
+      </c>
+      <c r="CA11">
+        <v>254</v>
+      </c>
+      <c r="CB11">
+        <v>226</v>
+      </c>
+      <c r="CC11">
+        <v>169</v>
+      </c>
+      <c r="CD11">
+        <v>226</v>
+      </c>
+      <c r="CE11">
+        <v>226</v>
+      </c>
+      <c r="CF11">
+        <v>254</v>
+      </c>
+      <c r="CG11">
+        <v>339</v>
+      </c>
+      <c r="CH11">
+        <v>283</v>
+      </c>
+      <c r="CI11">
+        <v>169</v>
+      </c>
+      <c r="CJ11">
+        <v>283</v>
+      </c>
+      <c r="CK11">
+        <v>339</v>
+      </c>
+      <c r="CL11">
+        <v>254</v>
+      </c>
+      <c r="CM11">
+        <v>311</v>
+      </c>
+      <c r="CN11">
+        <v>226</v>
+      </c>
+      <c r="CO11">
+        <v>226</v>
+      </c>
+      <c r="CP11">
+        <v>339</v>
+      </c>
+      <c r="CQ11">
+        <v>226</v>
+      </c>
+      <c r="CR11">
+        <v>311</v>
+      </c>
+      <c r="CS11">
+        <v>254</v>
+      </c>
+      <c r="CT11">
+        <v>226</v>
+      </c>
+      <c r="CU11">
+        <v>311</v>
+      </c>
+      <c r="CV11">
+        <v>339</v>
+      </c>
+      <c r="CW11">
+        <v>283</v>
+      </c>
+      <c r="CX11">
+        <v>254</v>
+      </c>
+      <c r="CY11">
+        <v>339</v>
+      </c>
+      <c r="CZ11">
+        <v>169</v>
+      </c>
+      <c r="DA11">
+        <v>283</v>
+      </c>
+      <c r="DB11">
+        <v>226</v>
+      </c>
+      <c r="DC11">
+        <v>226</v>
+      </c>
+      <c r="DD11">
+        <v>254</v>
+      </c>
+      <c r="DE11">
+        <v>226</v>
+      </c>
+      <c r="DF11">
+        <v>311</v>
+      </c>
+      <c r="DG11">
+        <v>254</v>
+      </c>
+      <c r="DH11">
         <v>198</v>
       </c>
-      <c r="BA11">
-        <v>198</v>
-      </c>
-      <c r="BB11">
-        <v>169</v>
-      </c>
-      <c r="BC11">
+      <c r="DI11">
         <v>226</v>
       </c>
-      <c r="BD11">
-        <v>339</v>
-      </c>
-      <c r="BE11">
-        <v>424</v>
-      </c>
-      <c r="BF11">
-        <v>396</v>
-      </c>
-      <c r="BG11">
-        <v>368</v>
-      </c>
-      <c r="BH11">
-        <v>453</v>
-      </c>
-      <c r="BI11">
-        <v>424</v>
-      </c>
-      <c r="BJ11">
-        <v>679</v>
-      </c>
-      <c r="BK11">
-        <v>509</v>
-      </c>
-      <c r="BL11">
-        <v>594</v>
-      </c>
-      <c r="BM11">
-        <v>793</v>
-      </c>
-      <c r="BN11">
-        <v>708</v>
-      </c>
-      <c r="BO11">
-        <v>623</v>
-      </c>
-      <c r="BP11">
-        <v>821</v>
-      </c>
-      <c r="BQ11">
-        <v>736</v>
-      </c>
-      <c r="BR11">
-        <v>821</v>
-      </c>
-      <c r="BS11">
-        <v>821</v>
-      </c>
-      <c r="BT11">
-        <v>793</v>
-      </c>
-      <c r="BU11">
-        <v>962</v>
-      </c>
-      <c r="BV11">
-        <v>934</v>
-      </c>
-      <c r="BW11">
-        <v>962</v>
-      </c>
-      <c r="BX11">
-        <v>1246</v>
-      </c>
-      <c r="BY11">
-        <v>1104</v>
-      </c>
-      <c r="BZ11">
-        <v>1104</v>
-      </c>
-      <c r="CA11">
-        <v>1132</v>
-      </c>
-      <c r="CB11">
-        <v>1019</v>
-      </c>
-      <c r="CC11">
-        <v>1246</v>
-      </c>
-      <c r="CD11">
-        <v>1047</v>
-      </c>
-      <c r="CE11">
-        <v>1132</v>
-      </c>
-      <c r="CF11">
-        <v>934</v>
-      </c>
-      <c r="CG11">
-        <v>934</v>
-      </c>
-      <c r="CH11">
-        <v>1104</v>
-      </c>
-      <c r="CI11">
-        <v>1047</v>
-      </c>
-      <c r="CJ11">
-        <v>878</v>
-      </c>
-      <c r="CK11">
-        <v>849</v>
-      </c>
-      <c r="CL11">
-        <v>849</v>
-      </c>
-      <c r="CM11">
-        <v>821</v>
-      </c>
-      <c r="CN11">
-        <v>764</v>
-      </c>
-      <c r="CO11">
-        <v>594</v>
-      </c>
-      <c r="CP11">
-        <v>679</v>
-      </c>
-      <c r="CQ11">
-        <v>651</v>
-      </c>
-      <c r="CR11">
-        <v>651</v>
-      </c>
-      <c r="CS11">
-        <v>679</v>
-      </c>
-      <c r="CT11">
-        <v>538</v>
-      </c>
-      <c r="CU11">
-        <v>453</v>
-      </c>
-      <c r="CV11">
-        <v>453</v>
-      </c>
-      <c r="CW11">
-        <v>396</v>
-      </c>
-      <c r="CX11">
-        <v>424</v>
-      </c>
-      <c r="CY11">
-        <v>481</v>
-      </c>
-      <c r="CZ11">
-        <v>311</v>
-      </c>
-      <c r="DA11">
+      <c r="DJ11">
         <v>226</v>
       </c>
-      <c r="DB11">
-        <v>311</v>
-      </c>
-      <c r="DC11">
-        <v>339</v>
-      </c>
-      <c r="DD11">
+      <c r="DK11">
         <v>226</v>
-      </c>
-      <c r="DE11">
-        <v>283</v>
-      </c>
-      <c r="DF11">
-        <v>283</v>
-      </c>
-      <c r="DG11">
-        <v>226</v>
-      </c>
-      <c r="DH11">
-        <v>169</v>
-      </c>
-      <c r="DI11">
-        <v>141</v>
-      </c>
-      <c r="DJ11">
-        <v>113</v>
-      </c>
-      <c r="DK11">
-        <v>141</v>
       </c>
       <c r="DL11">
         <v>141</v>
@@ -6298,166 +6509,166 @@
         <v>169</v>
       </c>
       <c r="DN11">
+        <v>198</v>
+      </c>
+      <c r="DO11">
+        <v>198</v>
+      </c>
+      <c r="DP11">
+        <v>198</v>
+      </c>
+      <c r="DQ11">
+        <v>169</v>
+      </c>
+      <c r="DR11">
+        <v>198</v>
+      </c>
+      <c r="DS11">
+        <v>169</v>
+      </c>
+      <c r="DT11">
+        <v>169</v>
+      </c>
+      <c r="DU11">
+        <v>198</v>
+      </c>
+      <c r="DV11">
+        <v>198</v>
+      </c>
+      <c r="DW11">
+        <v>169</v>
+      </c>
+      <c r="DX11">
+        <v>198</v>
+      </c>
+      <c r="DY11">
+        <v>198</v>
+      </c>
+      <c r="DZ11">
+        <v>169</v>
+      </c>
+      <c r="EA11">
+        <v>254</v>
+      </c>
+      <c r="EB11">
         <v>84</v>
       </c>
-      <c r="DO11">
-        <v>56</v>
-      </c>
-      <c r="DP11">
-        <v>56</v>
-      </c>
-      <c r="DQ11">
-        <v>56</v>
-      </c>
-      <c r="DR11">
+      <c r="EC11">
+        <v>198</v>
+      </c>
+      <c r="ED11">
+        <v>198</v>
+      </c>
+      <c r="EE11">
+        <v>169</v>
+      </c>
+      <c r="EF11">
+        <v>141</v>
+      </c>
+      <c r="EG11">
         <v>113</v>
       </c>
-      <c r="DS11">
+      <c r="EH11">
+        <v>113</v>
+      </c>
+      <c r="EI11">
+        <v>113</v>
+      </c>
+      <c r="EJ11">
+        <v>169</v>
+      </c>
+      <c r="EK11">
+        <v>198</v>
+      </c>
+      <c r="EL11">
+        <v>113</v>
+      </c>
+      <c r="EM11">
+        <v>169</v>
+      </c>
+      <c r="EN11">
+        <v>113</v>
+      </c>
+      <c r="EO11">
         <v>84</v>
       </c>
-      <c r="DT11">
-        <v>0</v>
-      </c>
-      <c r="DU11">
-        <v>0</v>
-      </c>
-      <c r="DV11">
-        <v>56</v>
-      </c>
-      <c r="DW11">
+      <c r="EP11">
+        <v>56</v>
+      </c>
+      <c r="EQ11">
+        <v>169</v>
+      </c>
+      <c r="ER11">
+        <v>84</v>
+      </c>
+      <c r="ES11">
+        <v>113</v>
+      </c>
+      <c r="ET11">
+        <v>113</v>
+      </c>
+      <c r="EU11">
+        <v>84</v>
+      </c>
+      <c r="EV11">
+        <v>84</v>
+      </c>
+      <c r="EW11">
+        <v>141</v>
+      </c>
+      <c r="EX11">
+        <v>84</v>
+      </c>
+      <c r="EY11">
+        <v>113</v>
+      </c>
+      <c r="EZ11">
         <v>28</v>
       </c>
-      <c r="DX11">
+      <c r="FA11">
+        <v>56</v>
+      </c>
+      <c r="FB11">
+        <v>56</v>
+      </c>
+      <c r="FC11">
+        <v>84</v>
+      </c>
+      <c r="FD11">
+        <v>56</v>
+      </c>
+      <c r="FE11">
+        <v>113</v>
+      </c>
+      <c r="FF11">
+        <v>0</v>
+      </c>
+      <c r="FG11">
+        <v>141</v>
+      </c>
+      <c r="FH11">
+        <v>84</v>
+      </c>
+      <c r="FI11">
+        <v>56</v>
+      </c>
+      <c r="FJ11">
+        <v>56</v>
+      </c>
+      <c r="FK11">
+        <v>56</v>
+      </c>
+      <c r="FL11">
+        <v>56</v>
+      </c>
+      <c r="FM11">
+        <v>56</v>
+      </c>
+      <c r="FN11">
         <v>28</v>
       </c>
-      <c r="DY11">
-        <v>56</v>
-      </c>
-      <c r="DZ11">
-        <v>0</v>
-      </c>
-      <c r="EA11">
-        <v>56</v>
-      </c>
-      <c r="EB11">
-        <v>0</v>
-      </c>
-      <c r="EC11">
-        <v>0</v>
-      </c>
-      <c r="ED11">
-        <v>0</v>
-      </c>
-      <c r="EE11">
-        <v>56</v>
-      </c>
-      <c r="EF11">
-        <v>0</v>
-      </c>
-      <c r="EG11">
-        <v>0</v>
-      </c>
-      <c r="EH11">
-        <v>0</v>
-      </c>
-      <c r="EI11">
-        <v>0</v>
-      </c>
-      <c r="EJ11">
-        <v>0</v>
-      </c>
-      <c r="EK11">
-        <v>0</v>
-      </c>
-      <c r="EL11">
-        <v>0</v>
-      </c>
-      <c r="EM11">
-        <v>0</v>
-      </c>
-      <c r="EN11">
-        <v>0</v>
-      </c>
-      <c r="EO11">
-        <v>0</v>
-      </c>
-      <c r="EP11">
-        <v>0</v>
-      </c>
-      <c r="EQ11">
-        <v>0</v>
-      </c>
-      <c r="ER11">
-        <v>0</v>
-      </c>
-      <c r="ES11">
-        <v>0</v>
-      </c>
-      <c r="ET11">
-        <v>0</v>
-      </c>
-      <c r="EU11">
-        <v>0</v>
-      </c>
-      <c r="EV11">
-        <v>0</v>
-      </c>
-      <c r="EW11">
-        <v>0</v>
-      </c>
-      <c r="EX11">
-        <v>0</v>
-      </c>
-      <c r="EY11">
-        <v>0</v>
-      </c>
-      <c r="EZ11">
-        <v>0</v>
-      </c>
-      <c r="FA11">
-        <v>0</v>
-      </c>
-      <c r="FB11">
-        <v>0</v>
-      </c>
-      <c r="FC11">
-        <v>0</v>
-      </c>
-      <c r="FD11">
-        <v>0</v>
-      </c>
-      <c r="FE11">
-        <v>0</v>
-      </c>
-      <c r="FF11">
-        <v>0</v>
-      </c>
-      <c r="FG11">
-        <v>0</v>
-      </c>
-      <c r="FH11">
-        <v>0</v>
-      </c>
-      <c r="FI11">
-        <v>0</v>
-      </c>
-      <c r="FJ11">
-        <v>0</v>
-      </c>
-      <c r="FK11">
-        <v>0</v>
-      </c>
-      <c r="FL11">
-        <v>0</v>
-      </c>
-      <c r="FM11">
-        <v>0</v>
-      </c>
-      <c r="FN11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:171">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -6684,248 +6895,248 @@
         <v>679</v>
       </c>
       <c r="BX12">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="BY12">
         <v>679</v>
       </c>
       <c r="BZ12">
+        <v>566</v>
+      </c>
+      <c r="CA12">
+        <v>679</v>
+      </c>
+      <c r="CB12">
         <v>594</v>
-      </c>
-      <c r="CA12">
-        <v>736</v>
-      </c>
-      <c r="CB12">
-        <v>651</v>
       </c>
       <c r="CC12">
         <v>679</v>
       </c>
       <c r="CD12">
-        <v>793</v>
+        <v>708</v>
       </c>
       <c r="CE12">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="CF12">
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="CG12">
-        <v>736</v>
+        <v>538</v>
       </c>
       <c r="CH12">
-        <v>821</v>
+        <v>566</v>
       </c>
       <c r="CI12">
-        <v>878</v>
+        <v>566</v>
       </c>
       <c r="CJ12">
-        <v>878</v>
+        <v>509</v>
       </c>
       <c r="CK12">
         <v>679</v>
       </c>
       <c r="CL12">
-        <v>679</v>
+        <v>538</v>
       </c>
       <c r="CM12">
-        <v>736</v>
+        <v>538</v>
       </c>
       <c r="CN12">
-        <v>764</v>
+        <v>566</v>
       </c>
       <c r="CO12">
-        <v>764</v>
+        <v>651</v>
       </c>
       <c r="CP12">
-        <v>793</v>
+        <v>481</v>
       </c>
       <c r="CQ12">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="CR12">
-        <v>793</v>
+        <v>509</v>
       </c>
       <c r="CS12">
-        <v>651</v>
+        <v>396</v>
       </c>
       <c r="CT12">
-        <v>679</v>
+        <v>424</v>
       </c>
       <c r="CU12">
-        <v>651</v>
+        <v>538</v>
       </c>
       <c r="CV12">
         <v>509</v>
       </c>
       <c r="CW12">
-        <v>651</v>
+        <v>396</v>
       </c>
       <c r="CX12">
-        <v>538</v>
+        <v>453</v>
       </c>
       <c r="CY12">
-        <v>566</v>
+        <v>481</v>
       </c>
       <c r="CZ12">
-        <v>679</v>
+        <v>396</v>
       </c>
       <c r="DA12">
-        <v>594</v>
+        <v>311</v>
       </c>
       <c r="DB12">
-        <v>509</v>
+        <v>424</v>
       </c>
       <c r="DC12">
-        <v>538</v>
+        <v>254</v>
       </c>
       <c r="DD12">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="DE12">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="DF12">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="DG12">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="DH12">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="DI12">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="DJ12">
+        <v>226</v>
+      </c>
+      <c r="DK12">
+        <v>169</v>
+      </c>
+      <c r="DL12">
+        <v>169</v>
+      </c>
+      <c r="DM12">
         <v>254</v>
       </c>
-      <c r="DK12">
-        <v>254</v>
-      </c>
-      <c r="DL12">
+      <c r="DN12">
+        <v>198</v>
+      </c>
+      <c r="DO12">
+        <v>198</v>
+      </c>
+      <c r="DP12">
+        <v>113</v>
+      </c>
+      <c r="DQ12">
+        <v>169</v>
+      </c>
+      <c r="DR12">
+        <v>141</v>
+      </c>
+      <c r="DS12">
+        <v>169</v>
+      </c>
+      <c r="DT12">
         <v>226</v>
       </c>
-      <c r="DM12">
-        <v>396</v>
-      </c>
-      <c r="DN12">
-        <v>254</v>
-      </c>
-      <c r="DO12">
-        <v>283</v>
-      </c>
-      <c r="DP12">
-        <v>311</v>
-      </c>
-      <c r="DQ12">
-        <v>226</v>
-      </c>
-      <c r="DR12">
-        <v>254</v>
-      </c>
-      <c r="DS12">
-        <v>226</v>
-      </c>
-      <c r="DT12">
-        <v>169</v>
-      </c>
       <c r="DU12">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="DV12">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="DW12">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="DX12">
         <v>169</v>
       </c>
       <c r="DY12">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="DZ12">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="EA12">
+        <v>84</v>
+      </c>
+      <c r="EB12">
+        <v>84</v>
+      </c>
+      <c r="EC12">
+        <v>84</v>
+      </c>
+      <c r="ED12">
+        <v>56</v>
+      </c>
+      <c r="EE12">
+        <v>56</v>
+      </c>
+      <c r="EF12">
+        <v>56</v>
+      </c>
+      <c r="EG12">
+        <v>56</v>
+      </c>
+      <c r="EH12">
         <v>113</v>
       </c>
-      <c r="EB12">
-        <v>56</v>
-      </c>
-      <c r="EC12">
-        <v>56</v>
-      </c>
-      <c r="ED12">
+      <c r="EI12">
+        <v>56</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
+      <c r="EK12">
         <v>113</v>
-      </c>
-      <c r="EE12">
-        <v>56</v>
-      </c>
-      <c r="EF12">
-        <v>56</v>
-      </c>
-      <c r="EG12">
-        <v>56</v>
-      </c>
-      <c r="EH12">
-        <v>56</v>
-      </c>
-      <c r="EI12">
-        <v>56</v>
-      </c>
-      <c r="EJ12">
-        <v>56</v>
-      </c>
-      <c r="EK12">
-        <v>28</v>
       </c>
       <c r="EL12">
         <v>28</v>
       </c>
       <c r="EM12">
+        <v>84</v>
+      </c>
+      <c r="EN12">
+        <v>84</v>
+      </c>
+      <c r="EO12">
+        <v>0</v>
+      </c>
+      <c r="EP12">
+        <v>56</v>
+      </c>
+      <c r="EQ12">
+        <v>0</v>
+      </c>
+      <c r="ER12">
         <v>28</v>
       </c>
-      <c r="EN12">
+      <c r="ES12">
+        <v>0</v>
+      </c>
+      <c r="ET12">
+        <v>56</v>
+      </c>
+      <c r="EU12">
+        <v>0</v>
+      </c>
+      <c r="EV12">
+        <v>0</v>
+      </c>
+      <c r="EW12">
+        <v>0</v>
+      </c>
+      <c r="EX12">
+        <v>0</v>
+      </c>
+      <c r="EY12">
+        <v>0</v>
+      </c>
+      <c r="EZ12">
         <v>28</v>
       </c>
-      <c r="EO12">
-        <v>0</v>
-      </c>
-      <c r="EP12">
-        <v>56</v>
-      </c>
-      <c r="EQ12">
-        <v>0</v>
-      </c>
-      <c r="ER12">
-        <v>0</v>
-      </c>
-      <c r="ES12">
-        <v>0</v>
-      </c>
-      <c r="ET12">
-        <v>0</v>
-      </c>
-      <c r="EU12">
-        <v>56</v>
-      </c>
-      <c r="EV12">
-        <v>0</v>
-      </c>
-      <c r="EW12">
-        <v>0</v>
-      </c>
-      <c r="EX12">
-        <v>0</v>
-      </c>
-      <c r="EY12">
-        <v>0</v>
-      </c>
-      <c r="EZ12">
-        <v>0</v>
-      </c>
       <c r="FA12">
         <v>0</v>
       </c>
@@ -6933,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="FC12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FD12">
         <v>0</v>
@@ -6942,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="FF12">
+        <v>0</v>
+      </c>
+      <c r="FG12">
         <v>28</v>
       </c>
-      <c r="FG12">
-        <v>0</v>
-      </c>
       <c r="FH12">
         <v>0</v>
       </c>
       <c r="FI12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FJ12">
         <v>0</v>
@@ -6960,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="FL12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FM12">
         <v>0</v>
@@ -6969,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:171">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>354</v>
       </c>
@@ -7199,169 +7410,169 @@
         <v>679</v>
       </c>
       <c r="BY13">
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="BZ13">
         <v>566</v>
       </c>
       <c r="CA13">
-        <v>793</v>
+        <v>679</v>
       </c>
       <c r="CB13">
+        <v>651</v>
+      </c>
+      <c r="CC13">
         <v>679</v>
-      </c>
-      <c r="CC13">
-        <v>878</v>
       </c>
       <c r="CD13">
         <v>679</v>
       </c>
       <c r="CE13">
-        <v>708</v>
+        <v>538</v>
       </c>
       <c r="CF13">
-        <v>849</v>
+        <v>679</v>
       </c>
       <c r="CG13">
-        <v>934</v>
+        <v>651</v>
       </c>
       <c r="CH13">
-        <v>793</v>
+        <v>538</v>
       </c>
       <c r="CI13">
-        <v>821</v>
+        <v>509</v>
       </c>
       <c r="CJ13">
-        <v>962</v>
+        <v>594</v>
       </c>
       <c r="CK13">
-        <v>906</v>
+        <v>538</v>
       </c>
       <c r="CL13">
-        <v>878</v>
+        <v>538</v>
       </c>
       <c r="CM13">
-        <v>906</v>
+        <v>509</v>
       </c>
       <c r="CN13">
-        <v>934</v>
+        <v>623</v>
       </c>
       <c r="CO13">
-        <v>878</v>
+        <v>453</v>
       </c>
       <c r="CP13">
-        <v>878</v>
+        <v>453</v>
       </c>
       <c r="CQ13">
-        <v>821</v>
+        <v>538</v>
       </c>
       <c r="CR13">
-        <v>764</v>
+        <v>368</v>
       </c>
       <c r="CS13">
-        <v>991</v>
+        <v>453</v>
       </c>
       <c r="CT13">
-        <v>594</v>
+        <v>311</v>
       </c>
       <c r="CU13">
-        <v>906</v>
+        <v>368</v>
       </c>
       <c r="CV13">
-        <v>793</v>
+        <v>339</v>
       </c>
       <c r="CW13">
-        <v>764</v>
+        <v>311</v>
       </c>
       <c r="CX13">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="CY13">
-        <v>538</v>
+        <v>339</v>
       </c>
       <c r="CZ13">
-        <v>821</v>
+        <v>254</v>
       </c>
       <c r="DA13">
-        <v>651</v>
+        <v>198</v>
       </c>
       <c r="DB13">
-        <v>453</v>
+        <v>198</v>
       </c>
       <c r="DC13">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="DD13">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="DE13">
-        <v>623</v>
+        <v>169</v>
       </c>
       <c r="DF13">
-        <v>396</v>
+        <v>141</v>
       </c>
       <c r="DG13">
-        <v>453</v>
+        <v>169</v>
       </c>
       <c r="DH13">
-        <v>453</v>
+        <v>198</v>
       </c>
       <c r="DI13">
-        <v>368</v>
+        <v>198</v>
       </c>
       <c r="DJ13">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="DK13">
-        <v>396</v>
+        <v>113</v>
       </c>
       <c r="DL13">
-        <v>339</v>
+        <v>113</v>
       </c>
       <c r="DM13">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="DN13">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="DO13">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="DP13">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="DQ13">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="DR13">
         <v>113</v>
       </c>
       <c r="DS13">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="DT13">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="DU13">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="DV13">
         <v>141</v>
       </c>
       <c r="DW13">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="DX13">
         <v>141</v>
       </c>
       <c r="DY13">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="DZ13">
         <v>113</v>
       </c>
       <c r="EA13">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="EB13">
         <v>84</v>
@@ -7370,64 +7581,64 @@
         <v>113</v>
       </c>
       <c r="ED13">
+        <v>28</v>
+      </c>
+      <c r="EE13">
+        <v>113</v>
+      </c>
+      <c r="EF13">
+        <v>56</v>
+      </c>
+      <c r="EG13">
+        <v>56</v>
+      </c>
+      <c r="EH13">
+        <v>56</v>
+      </c>
+      <c r="EI13">
         <v>84</v>
       </c>
-      <c r="EE13">
+      <c r="EJ13">
+        <v>56</v>
+      </c>
+      <c r="EK13">
         <v>28</v>
       </c>
-      <c r="EF13">
-        <v>56</v>
-      </c>
-      <c r="EG13">
-        <v>84</v>
-      </c>
-      <c r="EH13">
-        <v>56</v>
-      </c>
-      <c r="EI13">
-        <v>0</v>
-      </c>
-      <c r="EJ13">
+      <c r="EL13">
+        <v>56</v>
+      </c>
+      <c r="EM13">
         <v>28</v>
       </c>
-      <c r="EK13">
-        <v>0</v>
-      </c>
-      <c r="EL13">
-        <v>56</v>
-      </c>
-      <c r="EM13">
-        <v>0</v>
-      </c>
       <c r="EN13">
         <v>0</v>
       </c>
       <c r="EO13">
+        <v>0</v>
+      </c>
+      <c r="EP13">
+        <v>56</v>
+      </c>
+      <c r="EQ13">
         <v>28</v>
       </c>
-      <c r="EP13">
-        <v>0</v>
-      </c>
-      <c r="EQ13">
-        <v>0</v>
-      </c>
       <c r="ER13">
         <v>56</v>
       </c>
       <c r="ES13">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="ET13">
         <v>0</v>
       </c>
       <c r="EU13">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="EV13">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="EW13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="EX13">
         <v>0</v>
@@ -7436,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="EZ13">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="FA13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FB13">
         <v>0</v>
@@ -7481,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:171">
+    <row r="14" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -7993,12 +8204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:171">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:171">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>351</v>
       </c>
@@ -8099,157 +8310,157 @@
         <v>155</v>
       </c>
       <c r="AH16">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="AI16">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AJ16">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="AK16">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="AL16">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="AM16">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AN16">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AO16">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AP16">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="AQ16">
+        <v>226</v>
+      </c>
+      <c r="AR16">
+        <v>257</v>
+      </c>
+      <c r="AS16">
+        <v>228</v>
+      </c>
+      <c r="AT16">
+        <v>178</v>
+      </c>
+      <c r="AU16">
+        <v>222</v>
+      </c>
+      <c r="AV16">
+        <v>252</v>
+      </c>
+      <c r="AW16">
+        <v>225</v>
+      </c>
+      <c r="AX16">
+        <v>251</v>
+      </c>
+      <c r="AY16">
+        <v>308</v>
+      </c>
+      <c r="AZ16">
         <v>254</v>
-      </c>
-      <c r="AR16">
-        <v>202</v>
-      </c>
-      <c r="AS16">
-        <v>169</v>
-      </c>
-      <c r="AT16">
-        <v>363</v>
-      </c>
-      <c r="AU16">
-        <v>279</v>
-      </c>
-      <c r="AV16">
-        <v>335</v>
-      </c>
-      <c r="AW16">
-        <v>339</v>
-      </c>
-      <c r="AX16">
-        <v>339</v>
-      </c>
-      <c r="AY16">
-        <v>396</v>
-      </c>
-      <c r="AZ16">
-        <v>368</v>
       </c>
       <c r="BA16">
         <v>283</v>
       </c>
       <c r="BB16">
+        <v>283</v>
+      </c>
+      <c r="BC16">
+        <v>283</v>
+      </c>
+      <c r="BD16">
+        <v>254</v>
+      </c>
+      <c r="BE16">
+        <v>283</v>
+      </c>
+      <c r="BF16">
+        <v>311</v>
+      </c>
+      <c r="BG16">
         <v>368</v>
-      </c>
-      <c r="BC16">
-        <v>311</v>
-      </c>
-      <c r="BD16">
-        <v>368</v>
-      </c>
-      <c r="BE16">
-        <v>424</v>
-      </c>
-      <c r="BF16">
-        <v>424</v>
-      </c>
-      <c r="BG16">
-        <v>424</v>
       </c>
       <c r="BH16">
         <v>368</v>
       </c>
       <c r="BI16">
-        <v>509</v>
+        <v>283</v>
       </c>
       <c r="BJ16">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="BK16">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="BL16">
-        <v>424</v>
+        <v>339</v>
       </c>
       <c r="BM16">
-        <v>566</v>
+        <v>368</v>
       </c>
       <c r="BN16">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="BO16">
-        <v>566</v>
+        <v>254</v>
       </c>
       <c r="BP16">
+        <v>339</v>
+      </c>
+      <c r="BQ16">
+        <v>254</v>
+      </c>
+      <c r="BR16">
+        <v>368</v>
+      </c>
+      <c r="BS16">
+        <v>339</v>
+      </c>
+      <c r="BT16">
         <v>396</v>
       </c>
-      <c r="BQ16">
-        <v>424</v>
-      </c>
-      <c r="BR16">
-        <v>481</v>
-      </c>
-      <c r="BS16">
-        <v>453</v>
-      </c>
-      <c r="BT16">
-        <v>453</v>
-      </c>
       <c r="BU16">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="BV16">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="BW16">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="BX16">
-        <v>453</v>
+        <v>311</v>
       </c>
       <c r="BY16">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="BZ16">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="CA16">
-        <v>538</v>
+        <v>396</v>
       </c>
       <c r="CB16">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="CC16">
-        <v>481</v>
+        <v>311</v>
       </c>
       <c r="CD16">
-        <v>453</v>
+        <v>283</v>
       </c>
       <c r="CE16">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="CF16">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="CG16">
         <v>368</v>
@@ -8258,215 +8469,215 @@
         <v>311</v>
       </c>
       <c r="CI16">
+        <v>254</v>
+      </c>
+      <c r="CJ16">
         <v>339</v>
       </c>
-      <c r="CJ16">
+      <c r="CK16">
         <v>368</v>
       </c>
-      <c r="CK16">
-        <v>453</v>
-      </c>
       <c r="CL16">
+        <v>339</v>
+      </c>
+      <c r="CM16">
+        <v>368</v>
+      </c>
+      <c r="CN16">
+        <v>339</v>
+      </c>
+      <c r="CO16">
+        <v>339</v>
+      </c>
+      <c r="CP16">
         <v>283</v>
       </c>
-      <c r="CM16">
-        <v>396</v>
-      </c>
-      <c r="CN16">
-        <v>311</v>
-      </c>
-      <c r="CO16">
-        <v>311</v>
-      </c>
-      <c r="CP16">
-        <v>254</v>
-      </c>
       <c r="CQ16">
+        <v>339</v>
+      </c>
+      <c r="CR16">
         <v>368</v>
       </c>
-      <c r="CR16">
+      <c r="CS16">
+        <v>283</v>
+      </c>
+      <c r="CT16">
         <v>339</v>
-      </c>
-      <c r="CS16">
-        <v>339</v>
-      </c>
-      <c r="CT16">
-        <v>283</v>
       </c>
       <c r="CU16">
         <v>283</v>
       </c>
       <c r="CV16">
+        <v>311</v>
+      </c>
+      <c r="CW16">
+        <v>368</v>
+      </c>
+      <c r="CX16">
         <v>339</v>
       </c>
-      <c r="CW16">
+      <c r="CY16">
+        <v>198</v>
+      </c>
+      <c r="CZ16">
+        <v>339</v>
+      </c>
+      <c r="DA16">
         <v>283</v>
       </c>
-      <c r="CX16">
-        <v>198</v>
-      </c>
-      <c r="CY16">
-        <v>254</v>
-      </c>
-      <c r="CZ16">
+      <c r="DB16">
+        <v>339</v>
+      </c>
+      <c r="DC16">
         <v>283</v>
       </c>
-      <c r="DA16">
-        <v>113</v>
-      </c>
-      <c r="DB16">
-        <v>141</v>
-      </c>
-      <c r="DC16">
-        <v>169</v>
-      </c>
       <c r="DD16">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="DE16">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="DF16">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="DG16">
         <v>113</v>
       </c>
       <c r="DH16">
+        <v>198</v>
+      </c>
+      <c r="DI16">
+        <v>169</v>
+      </c>
+      <c r="DJ16">
+        <v>254</v>
+      </c>
+      <c r="DK16">
+        <v>169</v>
+      </c>
+      <c r="DL16">
+        <v>169</v>
+      </c>
+      <c r="DM16">
+        <v>169</v>
+      </c>
+      <c r="DN16">
+        <v>198</v>
+      </c>
+      <c r="DO16">
+        <v>198</v>
+      </c>
+      <c r="DP16">
+        <v>169</v>
+      </c>
+      <c r="DQ16">
+        <v>254</v>
+      </c>
+      <c r="DR16">
+        <v>169</v>
+      </c>
+      <c r="DS16">
+        <v>169</v>
+      </c>
+      <c r="DT16">
+        <v>84</v>
+      </c>
+      <c r="DU16">
+        <v>198</v>
+      </c>
+      <c r="DV16">
+        <v>84</v>
+      </c>
+      <c r="DW16">
+        <v>226</v>
+      </c>
+      <c r="DX16">
         <v>113</v>
       </c>
-      <c r="DI16">
+      <c r="DY16">
+        <v>169</v>
+      </c>
+      <c r="DZ16">
+        <v>169</v>
+      </c>
+      <c r="EA16">
+        <v>198</v>
+      </c>
+      <c r="EB16">
+        <v>113</v>
+      </c>
+      <c r="EC16">
+        <v>141</v>
+      </c>
+      <c r="ED16">
         <v>84</v>
       </c>
-      <c r="DJ16">
+      <c r="EE16">
+        <v>113</v>
+      </c>
+      <c r="EF16">
+        <v>56</v>
+      </c>
+      <c r="EG16">
+        <v>113</v>
+      </c>
+      <c r="EH16">
+        <v>113</v>
+      </c>
+      <c r="EI16">
+        <v>56</v>
+      </c>
+      <c r="EJ16">
         <v>141</v>
       </c>
-      <c r="DK16">
-        <v>84</v>
-      </c>
-      <c r="DL16">
+      <c r="EK16">
+        <v>56</v>
+      </c>
+      <c r="EL16">
         <v>113</v>
       </c>
-      <c r="DM16">
-        <v>84</v>
-      </c>
-      <c r="DN16">
-        <v>113</v>
-      </c>
-      <c r="DO16">
-        <v>56</v>
-      </c>
-      <c r="DP16">
-        <v>113</v>
-      </c>
-      <c r="DQ16">
-        <v>56</v>
-      </c>
-      <c r="DR16">
-        <v>113</v>
-      </c>
-      <c r="DS16">
-        <v>113</v>
-      </c>
-      <c r="DT16">
-        <v>113</v>
-      </c>
-      <c r="DU16">
-        <v>56</v>
-      </c>
-      <c r="DV16">
+      <c r="EM16">
+        <v>56</v>
+      </c>
+      <c r="EN16">
+        <v>56</v>
+      </c>
+      <c r="EO16">
         <v>28</v>
       </c>
-      <c r="DW16">
-        <v>56</v>
-      </c>
-      <c r="DX16">
+      <c r="EP16">
+        <v>56</v>
+      </c>
+      <c r="EQ16">
         <v>28</v>
       </c>
-      <c r="DY16">
-        <v>56</v>
-      </c>
-      <c r="DZ16">
+      <c r="ER16">
+        <v>56</v>
+      </c>
+      <c r="ES16">
         <v>28</v>
       </c>
-      <c r="EA16">
+      <c r="ET16">
         <v>28</v>
       </c>
-      <c r="EB16">
-        <v>56</v>
-      </c>
-      <c r="EC16">
-        <v>56</v>
-      </c>
-      <c r="ED16">
-        <v>56</v>
-      </c>
-      <c r="EE16">
-        <v>0</v>
-      </c>
-      <c r="EF16">
-        <v>56</v>
-      </c>
-      <c r="EG16">
-        <v>0</v>
-      </c>
-      <c r="EH16">
+      <c r="EU16">
         <v>28</v>
       </c>
-      <c r="EI16">
-        <v>56</v>
-      </c>
-      <c r="EJ16">
+      <c r="EV16">
         <v>28</v>
       </c>
-      <c r="EK16">
-        <v>0</v>
-      </c>
-      <c r="EL16">
-        <v>0</v>
-      </c>
-      <c r="EM16">
+      <c r="EW16">
+        <v>56</v>
+      </c>
+      <c r="EX16">
+        <v>56</v>
+      </c>
+      <c r="EY16">
+        <v>0</v>
+      </c>
+      <c r="EZ16">
         <v>28</v>
       </c>
-      <c r="EN16">
-        <v>0</v>
-      </c>
-      <c r="EO16">
-        <v>0</v>
-      </c>
-      <c r="EP16">
-        <v>0</v>
-      </c>
-      <c r="EQ16">
-        <v>0</v>
-      </c>
-      <c r="ER16">
-        <v>0</v>
-      </c>
-      <c r="ES16">
-        <v>0</v>
-      </c>
-      <c r="ET16">
-        <v>0</v>
-      </c>
-      <c r="EU16">
-        <v>0</v>
-      </c>
-      <c r="EV16">
-        <v>0</v>
-      </c>
-      <c r="EW16">
-        <v>0</v>
-      </c>
-      <c r="EX16">
-        <v>0</v>
-      </c>
-      <c r="EY16">
-        <v>0</v>
-      </c>
-      <c r="EZ16">
-        <v>0</v>
-      </c>
       <c r="FA16">
         <v>0</v>
       </c>
@@ -8477,13 +8688,13 @@
         <v>0</v>
       </c>
       <c r="FD16">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="FE16">
         <v>0</v>
       </c>
       <c r="FF16">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="FG16">
         <v>0</v>
@@ -8495,22 +8706,22 @@
         <v>0</v>
       </c>
       <c r="FJ16">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="FK16">
         <v>0</v>
       </c>
       <c r="FL16">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FM16">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FN16">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:170">
+    <row r="17" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>352</v>
       </c>
@@ -8611,418 +8822,418 @@
         <v>155</v>
       </c>
       <c r="AH17">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="AI17">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AJ17">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="AK17">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="AL17">
+        <v>197</v>
+      </c>
+      <c r="AM17">
+        <v>146</v>
+      </c>
+      <c r="AN17">
+        <v>194</v>
+      </c>
+      <c r="AO17">
+        <v>258</v>
+      </c>
+      <c r="AP17">
+        <v>191</v>
+      </c>
+      <c r="AQ17">
+        <v>234</v>
+      </c>
+      <c r="AR17">
+        <v>206</v>
+      </c>
+      <c r="AS17">
+        <v>178</v>
+      </c>
+      <c r="AT17">
+        <v>163</v>
+      </c>
+      <c r="AU17">
+        <v>198</v>
+      </c>
+      <c r="AV17">
+        <v>162</v>
+      </c>
+      <c r="AW17">
+        <v>169</v>
+      </c>
+      <c r="AX17">
+        <v>225</v>
+      </c>
+      <c r="AY17">
         <v>252</v>
       </c>
-      <c r="AM17">
-        <v>232</v>
-      </c>
-      <c r="AN17">
-        <v>253</v>
-      </c>
-      <c r="AO17">
-        <v>251</v>
-      </c>
-      <c r="AP17">
-        <v>168</v>
-      </c>
-      <c r="AQ17">
+      <c r="AZ17">
+        <v>252</v>
+      </c>
+      <c r="BA17">
+        <v>195</v>
+      </c>
+      <c r="BB17">
+        <v>226</v>
+      </c>
+      <c r="BC17">
+        <v>223</v>
+      </c>
+      <c r="BD17">
+        <v>226</v>
+      </c>
+      <c r="BE17">
+        <v>226</v>
+      </c>
+      <c r="BF17">
+        <v>311</v>
+      </c>
+      <c r="BG17">
+        <v>226</v>
+      </c>
+      <c r="BH17">
         <v>254</v>
       </c>
-      <c r="AR17">
-        <v>280</v>
-      </c>
-      <c r="AS17">
-        <v>225</v>
-      </c>
-      <c r="AT17">
+      <c r="BI17">
+        <v>311</v>
+      </c>
+      <c r="BJ17">
+        <v>283</v>
+      </c>
+      <c r="BK17">
+        <v>254</v>
+      </c>
+      <c r="BL17">
+        <v>283</v>
+      </c>
+      <c r="BM17">
+        <v>311</v>
+      </c>
+      <c r="BN17">
         <v>339</v>
       </c>
-      <c r="AU17">
-        <v>424</v>
-      </c>
-      <c r="AV17">
+      <c r="BO17">
+        <v>254</v>
+      </c>
+      <c r="BP17">
         <v>311</v>
       </c>
-      <c r="AW17">
-        <v>368</v>
-      </c>
-      <c r="AX17">
-        <v>453</v>
-      </c>
-      <c r="AY17">
+      <c r="BQ17">
+        <v>283</v>
+      </c>
+      <c r="BR17">
+        <v>226</v>
+      </c>
+      <c r="BS17">
+        <v>254</v>
+      </c>
+      <c r="BT17">
+        <v>311</v>
+      </c>
+      <c r="BU17">
+        <v>254</v>
+      </c>
+      <c r="BV17">
+        <v>339</v>
+      </c>
+      <c r="BW17">
+        <v>226</v>
+      </c>
+      <c r="BX17">
+        <v>198</v>
+      </c>
+      <c r="BY17">
+        <v>226</v>
+      </c>
+      <c r="BZ17">
+        <v>283</v>
+      </c>
+      <c r="CA17">
         <v>396</v>
       </c>
-      <c r="AZ17">
-        <v>424</v>
-      </c>
-      <c r="BA17">
-        <v>368</v>
-      </c>
-      <c r="BB17">
-        <v>453</v>
-      </c>
-      <c r="BC17">
-        <v>481</v>
-      </c>
-      <c r="BD17">
-        <v>538</v>
-      </c>
-      <c r="BE17">
-        <v>424</v>
-      </c>
-      <c r="BF17">
-        <v>396</v>
-      </c>
-      <c r="BG17">
-        <v>424</v>
-      </c>
-      <c r="BH17">
-        <v>481</v>
-      </c>
-      <c r="BI17">
-        <v>509</v>
-      </c>
-      <c r="BJ17">
-        <v>396</v>
-      </c>
-      <c r="BK17">
-        <v>453</v>
-      </c>
-      <c r="BL17">
-        <v>453</v>
-      </c>
-      <c r="BM17">
-        <v>538</v>
-      </c>
-      <c r="BN17">
-        <v>566</v>
-      </c>
-      <c r="BO17">
-        <v>594</v>
-      </c>
-      <c r="BP17">
-        <v>481</v>
-      </c>
-      <c r="BQ17">
+      <c r="CB17">
+        <v>226</v>
+      </c>
+      <c r="CC17">
         <v>311</v>
       </c>
-      <c r="BR17">
-        <v>509</v>
-      </c>
-      <c r="BS17">
-        <v>538</v>
-      </c>
-      <c r="BT17">
-        <v>481</v>
-      </c>
-      <c r="BU17">
-        <v>481</v>
-      </c>
-      <c r="BV17">
-        <v>509</v>
-      </c>
-      <c r="BW17">
-        <v>481</v>
-      </c>
-      <c r="BX17">
-        <v>509</v>
-      </c>
-      <c r="BY17">
-        <v>509</v>
-      </c>
-      <c r="BZ17">
-        <v>424</v>
-      </c>
-      <c r="CA17">
-        <v>453</v>
-      </c>
-      <c r="CB17">
-        <v>396</v>
-      </c>
-      <c r="CC17">
-        <v>509</v>
-      </c>
       <c r="CD17">
-        <v>368</v>
+        <v>169</v>
       </c>
       <c r="CE17">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="CF17">
-        <v>481</v>
+        <v>226</v>
       </c>
       <c r="CG17">
-        <v>424</v>
+        <v>283</v>
       </c>
       <c r="CH17">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="CI17">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="CJ17">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="CK17">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="CL17">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="CM17">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="CN17">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="CO17">
+        <v>169</v>
+      </c>
+      <c r="CP17">
+        <v>198</v>
+      </c>
+      <c r="CQ17">
         <v>254</v>
       </c>
-      <c r="CP17">
-        <v>339</v>
-      </c>
-      <c r="CQ17">
-        <v>283</v>
-      </c>
       <c r="CR17">
+        <v>198</v>
+      </c>
+      <c r="CS17">
         <v>254</v>
       </c>
-      <c r="CS17">
-        <v>283</v>
-      </c>
       <c r="CT17">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="CU17">
         <v>226</v>
       </c>
       <c r="CV17">
+        <v>254</v>
+      </c>
+      <c r="CW17">
         <v>198</v>
       </c>
-      <c r="CW17">
-        <v>254</v>
-      </c>
       <c r="CX17">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="CY17">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="CZ17">
         <v>141</v>
       </c>
       <c r="DA17">
+        <v>198</v>
+      </c>
+      <c r="DB17">
+        <v>226</v>
+      </c>
+      <c r="DC17">
+        <v>226</v>
+      </c>
+      <c r="DD17">
+        <v>254</v>
+      </c>
+      <c r="DE17">
+        <v>198</v>
+      </c>
+      <c r="DF17">
         <v>141</v>
       </c>
-      <c r="DB17">
+      <c r="DG17">
+        <v>226</v>
+      </c>
+      <c r="DH17">
+        <v>226</v>
+      </c>
+      <c r="DI17">
+        <v>226</v>
+      </c>
+      <c r="DJ17">
+        <v>141</v>
+      </c>
+      <c r="DK17">
+        <v>113</v>
+      </c>
+      <c r="DL17">
+        <v>169</v>
+      </c>
+      <c r="DM17">
+        <v>169</v>
+      </c>
+      <c r="DN17">
         <v>198</v>
       </c>
-      <c r="DC17">
+      <c r="DO17">
+        <v>169</v>
+      </c>
+      <c r="DP17">
+        <v>169</v>
+      </c>
+      <c r="DQ17">
+        <v>84</v>
+      </c>
+      <c r="DR17">
+        <v>226</v>
+      </c>
+      <c r="DS17">
+        <v>169</v>
+      </c>
+      <c r="DT17">
+        <v>169</v>
+      </c>
+      <c r="DU17">
+        <v>169</v>
+      </c>
+      <c r="DV17">
+        <v>141</v>
+      </c>
+      <c r="DW17">
+        <v>169</v>
+      </c>
+      <c r="DX17">
+        <v>226</v>
+      </c>
+      <c r="DY17">
+        <v>141</v>
+      </c>
+      <c r="DZ17">
+        <v>141</v>
+      </c>
+      <c r="EA17">
         <v>113</v>
       </c>
-      <c r="DD17">
+      <c r="EB17">
         <v>141</v>
       </c>
-      <c r="DE17">
+      <c r="EC17">
+        <v>169</v>
+      </c>
+      <c r="ED17">
+        <v>226</v>
+      </c>
+      <c r="EE17">
+        <v>113</v>
+      </c>
+      <c r="EF17">
+        <v>84</v>
+      </c>
+      <c r="EG17">
         <v>141</v>
       </c>
-      <c r="DF17">
-        <v>56</v>
-      </c>
-      <c r="DG17">
-        <v>56</v>
-      </c>
-      <c r="DH17">
-        <v>56</v>
-      </c>
-      <c r="DI17">
+      <c r="EH17">
+        <v>141</v>
+      </c>
+      <c r="EI17">
+        <v>56</v>
+      </c>
+      <c r="EJ17">
         <v>113</v>
       </c>
-      <c r="DJ17">
-        <v>56</v>
-      </c>
-      <c r="DK17">
+      <c r="EK17">
         <v>84</v>
       </c>
-      <c r="DL17">
-        <v>56</v>
-      </c>
-      <c r="DM17">
-        <v>56</v>
-      </c>
-      <c r="DN17">
-        <v>56</v>
-      </c>
-      <c r="DO17">
-        <v>56</v>
-      </c>
-      <c r="DP17">
-        <v>0</v>
-      </c>
-      <c r="DQ17">
-        <v>56</v>
-      </c>
-      <c r="DR17">
-        <v>0</v>
-      </c>
-      <c r="DS17">
-        <v>0</v>
-      </c>
-      <c r="DT17">
+      <c r="EL17">
+        <v>56</v>
+      </c>
+      <c r="EM17">
+        <v>56</v>
+      </c>
+      <c r="EN17">
+        <v>113</v>
+      </c>
+      <c r="EO17">
+        <v>141</v>
+      </c>
+      <c r="EP17">
+        <v>84</v>
+      </c>
+      <c r="EQ17">
+        <v>56</v>
+      </c>
+      <c r="ER17">
+        <v>56</v>
+      </c>
+      <c r="ES17">
+        <v>84</v>
+      </c>
+      <c r="ET17">
+        <v>113</v>
+      </c>
+      <c r="EU17">
+        <v>113</v>
+      </c>
+      <c r="EV17">
+        <v>113</v>
+      </c>
+      <c r="EW17">
+        <v>113</v>
+      </c>
+      <c r="EX17">
+        <v>141</v>
+      </c>
+      <c r="EY17">
+        <v>56</v>
+      </c>
+      <c r="EZ17">
+        <v>84</v>
+      </c>
+      <c r="FA17">
+        <v>113</v>
+      </c>
+      <c r="FB17">
+        <v>56</v>
+      </c>
+      <c r="FC17">
+        <v>56</v>
+      </c>
+      <c r="FD17">
+        <v>84</v>
+      </c>
+      <c r="FE17">
+        <v>113</v>
+      </c>
+      <c r="FF17">
+        <v>56</v>
+      </c>
+      <c r="FG17">
+        <v>56</v>
+      </c>
+      <c r="FH17">
+        <v>56</v>
+      </c>
+      <c r="FI17">
+        <v>56</v>
+      </c>
+      <c r="FJ17">
+        <v>56</v>
+      </c>
+      <c r="FK17">
+        <v>56</v>
+      </c>
+      <c r="FL17">
+        <v>56</v>
+      </c>
+      <c r="FM17">
         <v>28</v>
       </c>
-      <c r="DU17">
-        <v>28</v>
-      </c>
-      <c r="DV17">
-        <v>0</v>
-      </c>
-      <c r="DW17">
-        <v>0</v>
-      </c>
-      <c r="DX17">
-        <v>0</v>
-      </c>
-      <c r="DY17">
-        <v>0</v>
-      </c>
-      <c r="DZ17">
-        <v>0</v>
-      </c>
-      <c r="EA17">
-        <v>0</v>
-      </c>
-      <c r="EB17">
-        <v>0</v>
-      </c>
-      <c r="EC17">
-        <v>0</v>
-      </c>
-      <c r="ED17">
-        <v>0</v>
-      </c>
-      <c r="EE17">
-        <v>0</v>
-      </c>
-      <c r="EF17">
-        <v>0</v>
-      </c>
-      <c r="EG17">
-        <v>0</v>
-      </c>
-      <c r="EH17">
-        <v>0</v>
-      </c>
-      <c r="EI17">
-        <v>0</v>
-      </c>
-      <c r="EJ17">
-        <v>0</v>
-      </c>
-      <c r="EK17">
-        <v>0</v>
-      </c>
-      <c r="EL17">
-        <v>0</v>
-      </c>
-      <c r="EM17">
-        <v>0</v>
-      </c>
-      <c r="EN17">
-        <v>0</v>
-      </c>
-      <c r="EO17">
-        <v>0</v>
-      </c>
-      <c r="EP17">
-        <v>0</v>
-      </c>
-      <c r="EQ17">
-        <v>0</v>
-      </c>
-      <c r="ER17">
-        <v>0</v>
-      </c>
-      <c r="ES17">
-        <v>0</v>
-      </c>
-      <c r="ET17">
-        <v>0</v>
-      </c>
-      <c r="EU17">
-        <v>0</v>
-      </c>
-      <c r="EV17">
-        <v>0</v>
-      </c>
-      <c r="EW17">
-        <v>0</v>
-      </c>
-      <c r="EX17">
-        <v>0</v>
-      </c>
-      <c r="EY17">
-        <v>0</v>
-      </c>
-      <c r="EZ17">
-        <v>0</v>
-      </c>
-      <c r="FA17">
-        <v>0</v>
-      </c>
-      <c r="FB17">
-        <v>0</v>
-      </c>
-      <c r="FC17">
-        <v>0</v>
-      </c>
-      <c r="FD17">
-        <v>0</v>
-      </c>
-      <c r="FE17">
-        <v>0</v>
-      </c>
-      <c r="FF17">
-        <v>0</v>
-      </c>
-      <c r="FG17">
-        <v>0</v>
-      </c>
-      <c r="FH17">
-        <v>0</v>
-      </c>
-      <c r="FI17">
-        <v>0</v>
-      </c>
-      <c r="FJ17">
-        <v>0</v>
-      </c>
-      <c r="FK17">
-        <v>0</v>
-      </c>
-      <c r="FL17">
-        <v>0</v>
-      </c>
-      <c r="FM17">
-        <v>0</v>
-      </c>
       <c r="FN17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:170">
+    <row r="18" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>353</v>
       </c>
@@ -9216,190 +9427,190 @@
         <v>396</v>
       </c>
       <c r="BM18">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="BN18">
+        <v>368</v>
+      </c>
+      <c r="BO18">
+        <v>538</v>
+      </c>
+      <c r="BP18">
         <v>453</v>
       </c>
-      <c r="BO18">
+      <c r="BQ18">
+        <v>481</v>
+      </c>
+      <c r="BR18">
         <v>453</v>
-      </c>
-      <c r="BP18">
-        <v>509</v>
-      </c>
-      <c r="BQ18">
-        <v>396</v>
-      </c>
-      <c r="BR18">
-        <v>368</v>
       </c>
       <c r="BS18">
         <v>424</v>
       </c>
       <c r="BT18">
+        <v>396</v>
+      </c>
+      <c r="BU18">
         <v>424</v>
       </c>
-      <c r="BU18">
-        <v>481</v>
-      </c>
       <c r="BV18">
+        <v>396</v>
+      </c>
+      <c r="BW18">
+        <v>368</v>
+      </c>
+      <c r="BX18">
+        <v>509</v>
+      </c>
+      <c r="BY18">
+        <v>424</v>
+      </c>
+      <c r="BZ18">
+        <v>339</v>
+      </c>
+      <c r="CA18">
+        <v>424</v>
+      </c>
+      <c r="CB18">
+        <v>396</v>
+      </c>
+      <c r="CC18">
         <v>453</v>
       </c>
-      <c r="BW18">
+      <c r="CD18">
         <v>424</v>
       </c>
-      <c r="BX18">
-        <v>481</v>
-      </c>
-      <c r="BY18">
-        <v>509</v>
-      </c>
-      <c r="BZ18">
-        <v>453</v>
-      </c>
-      <c r="CA18">
-        <v>396</v>
-      </c>
-      <c r="CB18">
-        <v>453</v>
-      </c>
-      <c r="CC18">
-        <v>481</v>
-      </c>
-      <c r="CD18">
-        <v>396</v>
-      </c>
       <c r="CE18">
-        <v>538</v>
+        <v>283</v>
       </c>
       <c r="CF18">
+        <v>339</v>
+      </c>
+      <c r="CG18">
+        <v>339</v>
+      </c>
+      <c r="CH18">
+        <v>311</v>
+      </c>
+      <c r="CI18">
+        <v>339</v>
+      </c>
+      <c r="CJ18">
         <v>424</v>
       </c>
-      <c r="CG18">
-        <v>396</v>
-      </c>
-      <c r="CH18">
-        <v>424</v>
-      </c>
-      <c r="CI18">
-        <v>424</v>
-      </c>
-      <c r="CJ18">
+      <c r="CK18">
+        <v>311</v>
+      </c>
+      <c r="CL18">
         <v>368</v>
       </c>
-      <c r="CK18">
+      <c r="CM18">
+        <v>311</v>
+      </c>
+      <c r="CN18">
         <v>368</v>
       </c>
-      <c r="CL18">
-        <v>396</v>
-      </c>
-      <c r="CM18">
+      <c r="CO18">
+        <v>283</v>
+      </c>
+      <c r="CP18">
         <v>339</v>
       </c>
-      <c r="CN18">
-        <v>396</v>
-      </c>
-      <c r="CO18">
-        <v>453</v>
-      </c>
-      <c r="CP18">
-        <v>396</v>
-      </c>
       <c r="CQ18">
-        <v>481</v>
+        <v>283</v>
       </c>
       <c r="CR18">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="CS18">
         <v>339</v>
       </c>
       <c r="CT18">
+        <v>311</v>
+      </c>
+      <c r="CU18">
+        <v>283</v>
+      </c>
+      <c r="CV18">
+        <v>254</v>
+      </c>
+      <c r="CW18">
         <v>368</v>
       </c>
-      <c r="CU18">
-        <v>311</v>
-      </c>
-      <c r="CV18">
-        <v>396</v>
-      </c>
-      <c r="CW18">
-        <v>339</v>
-      </c>
       <c r="CX18">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="CY18">
         <v>339</v>
       </c>
       <c r="CZ18">
+        <v>283</v>
+      </c>
+      <c r="DA18">
+        <v>169</v>
+      </c>
+      <c r="DB18">
         <v>226</v>
       </c>
-      <c r="DA18">
-        <v>311</v>
-      </c>
-      <c r="DB18">
-        <v>254</v>
-      </c>
       <c r="DC18">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="DD18">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="DE18">
         <v>198</v>
       </c>
       <c r="DF18">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="DG18">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="DH18">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="DI18">
         <v>198</v>
       </c>
       <c r="DJ18">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="DK18">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="DL18">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="DM18">
         <v>169</v>
       </c>
       <c r="DN18">
+        <v>113</v>
+      </c>
+      <c r="DO18">
         <v>141</v>
       </c>
-      <c r="DO18">
-        <v>84</v>
-      </c>
       <c r="DP18">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="DQ18">
         <v>141</v>
       </c>
       <c r="DR18">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="DS18">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="DT18">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="DU18">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="DV18">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="DW18">
         <v>113</v>
@@ -9408,28 +9619,28 @@
         <v>56</v>
       </c>
       <c r="DY18">
+        <v>84</v>
+      </c>
+      <c r="DZ18">
+        <v>84</v>
+      </c>
+      <c r="EA18">
         <v>113</v>
-      </c>
-      <c r="DZ18">
-        <v>56</v>
-      </c>
-      <c r="EA18">
-        <v>84</v>
       </c>
       <c r="EB18">
         <v>84</v>
       </c>
       <c r="EC18">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="ED18">
         <v>56</v>
       </c>
       <c r="EE18">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="EF18">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="EG18">
         <v>0</v>
@@ -9438,94 +9649,94 @@
         <v>0</v>
       </c>
       <c r="EI18">
+        <v>0</v>
+      </c>
+      <c r="EJ18">
         <v>28</v>
       </c>
-      <c r="EJ18">
-        <v>56</v>
-      </c>
       <c r="EK18">
+        <v>0</v>
+      </c>
+      <c r="EL18">
+        <v>0</v>
+      </c>
+      <c r="EM18">
+        <v>56</v>
+      </c>
+      <c r="EN18">
+        <v>56</v>
+      </c>
+      <c r="EO18">
+        <v>56</v>
+      </c>
+      <c r="EP18">
         <v>28</v>
       </c>
-      <c r="EL18">
-        <v>0</v>
-      </c>
-      <c r="EM18">
+      <c r="EQ18">
+        <v>0</v>
+      </c>
+      <c r="ER18">
+        <v>84</v>
+      </c>
+      <c r="ES18">
+        <v>56</v>
+      </c>
+      <c r="ET18">
         <v>28</v>
       </c>
-      <c r="EN18">
-        <v>56</v>
-      </c>
-      <c r="EO18">
-        <v>0</v>
-      </c>
-      <c r="EP18">
-        <v>56</v>
-      </c>
-      <c r="EQ18">
-        <v>0</v>
-      </c>
-      <c r="ER18">
-        <v>0</v>
-      </c>
-      <c r="ES18">
+      <c r="EU18">
+        <v>0</v>
+      </c>
+      <c r="EV18">
+        <v>56</v>
+      </c>
+      <c r="EW18">
+        <v>0</v>
+      </c>
+      <c r="EX18">
+        <v>0</v>
+      </c>
+      <c r="EY18">
+        <v>0</v>
+      </c>
+      <c r="EZ18">
+        <v>0</v>
+      </c>
+      <c r="FA18">
         <v>28</v>
       </c>
-      <c r="ET18">
-        <v>0</v>
-      </c>
-      <c r="EU18">
+      <c r="FB18">
         <v>28</v>
       </c>
-      <c r="EV18">
-        <v>0</v>
-      </c>
-      <c r="EW18">
-        <v>0</v>
-      </c>
-      <c r="EX18">
-        <v>0</v>
-      </c>
-      <c r="EY18">
+      <c r="FC18">
         <v>28</v>
       </c>
-      <c r="EZ18">
-        <v>0</v>
-      </c>
-      <c r="FA18">
-        <v>0</v>
-      </c>
-      <c r="FB18">
-        <v>0</v>
-      </c>
-      <c r="FC18">
-        <v>0</v>
-      </c>
       <c r="FD18">
+        <v>0</v>
+      </c>
+      <c r="FE18">
+        <v>0</v>
+      </c>
+      <c r="FF18">
+        <v>0</v>
+      </c>
+      <c r="FG18">
+        <v>0</v>
+      </c>
+      <c r="FH18">
+        <v>0</v>
+      </c>
+      <c r="FI18">
+        <v>0</v>
+      </c>
+      <c r="FJ18">
+        <v>0</v>
+      </c>
+      <c r="FK18">
         <v>28</v>
       </c>
-      <c r="FE18">
-        <v>0</v>
-      </c>
-      <c r="FF18">
-        <v>0</v>
-      </c>
-      <c r="FG18">
-        <v>0</v>
-      </c>
-      <c r="FH18">
-        <v>0</v>
-      </c>
-      <c r="FI18">
-        <v>0</v>
-      </c>
-      <c r="FJ18">
-        <v>0</v>
-      </c>
-      <c r="FK18">
-        <v>0</v>
-      </c>
       <c r="FL18">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FM18">
         <v>0</v>
@@ -9534,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:170">
+    <row r="19" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>354</v>
       </c>
@@ -9728,202 +9939,202 @@
         <v>396</v>
       </c>
       <c r="BM19">
+        <v>453</v>
+      </c>
+      <c r="BN19">
         <v>396</v>
       </c>
-      <c r="BN19">
+      <c r="BO19">
         <v>453</v>
       </c>
-      <c r="BO19">
+      <c r="BP19">
         <v>368</v>
-      </c>
-      <c r="BP19">
-        <v>453</v>
       </c>
       <c r="BQ19">
         <v>396</v>
       </c>
       <c r="BR19">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="BS19">
-        <v>509</v>
+        <v>368</v>
       </c>
       <c r="BT19">
         <v>396</v>
       </c>
       <c r="BU19">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="BV19">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="BW19">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="BX19">
+        <v>311</v>
+      </c>
+      <c r="BY19">
+        <v>339</v>
+      </c>
+      <c r="BZ19">
+        <v>283</v>
+      </c>
+      <c r="CA19">
+        <v>368</v>
+      </c>
+      <c r="CB19">
+        <v>339</v>
+      </c>
+      <c r="CC19">
+        <v>311</v>
+      </c>
+      <c r="CD19">
+        <v>311</v>
+      </c>
+      <c r="CE19">
+        <v>311</v>
+      </c>
+      <c r="CF19">
         <v>424</v>
       </c>
-      <c r="BY19">
-        <v>509</v>
-      </c>
-      <c r="BZ19">
-        <v>453</v>
-      </c>
-      <c r="CA19">
-        <v>424</v>
-      </c>
-      <c r="CB19">
-        <v>538</v>
-      </c>
-      <c r="CC19">
-        <v>453</v>
-      </c>
-      <c r="CD19">
-        <v>509</v>
-      </c>
-      <c r="CE19">
-        <v>453</v>
-      </c>
-      <c r="CF19">
-        <v>453</v>
-      </c>
       <c r="CG19">
-        <v>453</v>
+        <v>226</v>
       </c>
       <c r="CH19">
-        <v>481</v>
+        <v>226</v>
       </c>
       <c r="CI19">
-        <v>453</v>
+        <v>311</v>
       </c>
       <c r="CJ19">
-        <v>453</v>
+        <v>311</v>
       </c>
       <c r="CK19">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="CL19">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="CM19">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="CN19">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="CO19">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="CP19">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="CQ19">
-        <v>424</v>
+        <v>169</v>
       </c>
       <c r="CR19">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="CS19">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="CT19">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="CU19">
-        <v>396</v>
+        <v>169</v>
       </c>
       <c r="CV19">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="CW19">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="CX19">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="CY19">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="CZ19">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="DA19">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="DB19">
         <v>169</v>
       </c>
       <c r="DC19">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="DD19">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="DE19">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="DF19">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="DG19">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="DH19">
-        <v>283</v>
+        <v>113</v>
       </c>
       <c r="DI19">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="DJ19">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="DK19">
         <v>141</v>
       </c>
       <c r="DL19">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="DM19">
         <v>169</v>
       </c>
       <c r="DN19">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="DO19">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="DP19">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="DQ19">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="DR19">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="DS19">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="DT19">
         <v>56</v>
       </c>
       <c r="DU19">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="DV19">
         <v>84</v>
       </c>
       <c r="DW19">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="DX19">
         <v>28</v>
       </c>
       <c r="DY19">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="DZ19">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="EA19">
         <v>56</v>
@@ -9935,7 +10146,7 @@
         <v>28</v>
       </c>
       <c r="ED19">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="EE19">
         <v>56</v>
@@ -9947,28 +10158,28 @@
         <v>0</v>
       </c>
       <c r="EH19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="EI19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="EJ19">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="EK19">
         <v>0</v>
       </c>
       <c r="EL19">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="EM19">
         <v>56</v>
       </c>
       <c r="EN19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="EO19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="EP19">
         <v>0</v>
@@ -9977,10 +10188,10 @@
         <v>0</v>
       </c>
       <c r="ER19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="ES19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="ET19">
         <v>0</v>
@@ -9992,19 +10203,19 @@
         <v>56</v>
       </c>
       <c r="EW19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="EX19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="EY19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="EZ19">
         <v>0</v>
       </c>
       <c r="FA19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="FB19">
         <v>0</v>
@@ -10019,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="FF19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="FG19">
         <v>0</v>
@@ -10028,13 +10239,13 @@
         <v>0</v>
       </c>
       <c r="FI19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FJ19">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="FK19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FL19">
         <v>0</v>
@@ -10046,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:170">
+    <row r="20" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>355</v>
       </c>
@@ -10560,8 +10771,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>